--- a/BackTest/2020-01-19 BackTest WTC.xlsx
+++ b/BackTest/2020-01-19 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M220"/>
+  <dimension ref="A1:M221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>455.9</v>
+        <v>454.9</v>
       </c>
       <c r="C2" t="n">
-        <v>455.9</v>
+        <v>456</v>
       </c>
       <c r="D2" t="n">
-        <v>455.9</v>
+        <v>456</v>
       </c>
       <c r="E2" t="n">
-        <v>455.9</v>
+        <v>454.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>792.173</v>
       </c>
       <c r="G2" t="n">
-        <v>465.633333333333</v>
+        <v>465.6516666666663</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456</v>
+        <v>455.9</v>
       </c>
       <c r="C3" t="n">
-        <v>456</v>
+        <v>455.9</v>
       </c>
       <c r="D3" t="n">
-        <v>456</v>
+        <v>455.9</v>
       </c>
       <c r="E3" t="n">
-        <v>456</v>
+        <v>455.9</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005999999999999999</v>
+        <v>1000</v>
       </c>
       <c r="G3" t="n">
-        <v>465.798333333333</v>
+        <v>465.633333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D4" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E4" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F4" t="n">
-        <v>17.2573</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>465.903333333333</v>
+        <v>465.798333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>457</v>
       </c>
       <c r="F5" t="n">
-        <v>2019.7029</v>
+        <v>17.2573</v>
       </c>
       <c r="G5" t="n">
         <v>465.903333333333</v>
@@ -573,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>460.5</v>
+        <v>457</v>
       </c>
       <c r="C6" t="n">
-        <v>460.5</v>
+        <v>457</v>
       </c>
       <c r="D6" t="n">
-        <v>460.5</v>
+        <v>457</v>
       </c>
       <c r="E6" t="n">
-        <v>460.5</v>
+        <v>457</v>
       </c>
       <c r="F6" t="n">
-        <v>22.3813</v>
+        <v>2019.7029</v>
       </c>
       <c r="G6" t="n">
         <v>465.903333333333</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461</v>
+        <v>460.5</v>
       </c>
       <c r="C7" t="n">
-        <v>462.2</v>
+        <v>460.5</v>
       </c>
       <c r="D7" t="n">
-        <v>463</v>
+        <v>460.5</v>
       </c>
       <c r="E7" t="n">
-        <v>461</v>
+        <v>460.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1133.8311</v>
+        <v>22.3813</v>
       </c>
       <c r="G7" t="n">
-        <v>465.768333333333</v>
+        <v>465.903333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>462.5</v>
+        <v>461</v>
       </c>
       <c r="C8" t="n">
-        <v>462.5</v>
+        <v>462.2</v>
       </c>
       <c r="D8" t="n">
-        <v>462.5</v>
+        <v>463</v>
       </c>
       <c r="E8" t="n">
-        <v>462.5</v>
+        <v>461</v>
       </c>
       <c r="F8" t="n">
-        <v>896.0439</v>
+        <v>1133.8311</v>
       </c>
       <c r="G8" t="n">
-        <v>465.638333333333</v>
+        <v>465.768333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>461.3</v>
+        <v>462.5</v>
       </c>
       <c r="C9" t="n">
-        <v>461.3</v>
+        <v>462.5</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3</v>
+        <v>462.5</v>
       </c>
       <c r="E9" t="n">
-        <v>461.3</v>
+        <v>462.5</v>
       </c>
       <c r="F9" t="n">
-        <v>22.422</v>
+        <v>896.0439</v>
       </c>
       <c r="G9" t="n">
-        <v>465.4849999999997</v>
+        <v>465.638333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>462</v>
+        <v>461.3</v>
       </c>
       <c r="C10" t="n">
-        <v>462</v>
+        <v>461.3</v>
       </c>
       <c r="D10" t="n">
-        <v>462</v>
+        <v>461.3</v>
       </c>
       <c r="E10" t="n">
-        <v>462</v>
+        <v>461.3</v>
       </c>
       <c r="F10" t="n">
-        <v>10.6378</v>
+        <v>22.422</v>
       </c>
       <c r="G10" t="n">
-        <v>465.3166666666664</v>
+        <v>465.4849999999997</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466.6</v>
+        <v>462</v>
       </c>
       <c r="C11" t="n">
-        <v>466.6</v>
+        <v>462</v>
       </c>
       <c r="D11" t="n">
-        <v>466.6</v>
+        <v>462</v>
       </c>
       <c r="E11" t="n">
-        <v>466.6</v>
+        <v>462</v>
       </c>
       <c r="F11" t="n">
-        <v>21.7155</v>
+        <v>10.6378</v>
       </c>
       <c r="G11" t="n">
-        <v>465.1949999999997</v>
+        <v>465.3166666666664</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>466.6</v>
       </c>
       <c r="F12" t="n">
-        <v>142.5439</v>
+        <v>21.7155</v>
       </c>
       <c r="G12" t="n">
-        <v>465.0666666666663</v>
+        <v>465.1949999999997</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465.9</v>
+        <v>466.6</v>
       </c>
       <c r="C13" t="n">
-        <v>466.9</v>
+        <v>466.6</v>
       </c>
       <c r="D13" t="n">
-        <v>466.9</v>
+        <v>466.6</v>
       </c>
       <c r="E13" t="n">
-        <v>465.9</v>
+        <v>466.6</v>
       </c>
       <c r="F13" t="n">
-        <v>535.4466</v>
+        <v>142.5439</v>
       </c>
       <c r="G13" t="n">
-        <v>464.9466666666664</v>
+        <v>465.0666666666663</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>468</v>
+        <v>465.9</v>
       </c>
       <c r="C14" t="n">
-        <v>477.9</v>
+        <v>466.9</v>
       </c>
       <c r="D14" t="n">
-        <v>477.9</v>
+        <v>466.9</v>
       </c>
       <c r="E14" t="n">
-        <v>468</v>
+        <v>465.9</v>
       </c>
       <c r="F14" t="n">
-        <v>3220.5666</v>
+        <v>535.4466</v>
       </c>
       <c r="G14" t="n">
-        <v>464.9949999999997</v>
+        <v>464.9466666666664</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473.9</v>
+        <v>468</v>
       </c>
       <c r="C15" t="n">
-        <v>473.9</v>
+        <v>477.9</v>
       </c>
       <c r="D15" t="n">
-        <v>473.9</v>
+        <v>477.9</v>
       </c>
       <c r="E15" t="n">
-        <v>473.9</v>
+        <v>468</v>
       </c>
       <c r="F15" t="n">
-        <v>3254.1177</v>
+        <v>3220.5666</v>
       </c>
       <c r="G15" t="n">
-        <v>464.9799999999997</v>
+        <v>464.9949999999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470.5</v>
+        <v>473.9</v>
       </c>
       <c r="C16" t="n">
-        <v>475</v>
+        <v>473.9</v>
       </c>
       <c r="D16" t="n">
-        <v>475</v>
+        <v>473.9</v>
       </c>
       <c r="E16" t="n">
-        <v>470.3</v>
+        <v>473.9</v>
       </c>
       <c r="F16" t="n">
-        <v>5133.5001</v>
+        <v>3254.1177</v>
       </c>
       <c r="G16" t="n">
-        <v>465.1099999999997</v>
+        <v>464.9799999999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>474.9</v>
+        <v>470.5</v>
       </c>
       <c r="C17" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D17" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E17" t="n">
-        <v>473.9</v>
+        <v>470.3</v>
       </c>
       <c r="F17" t="n">
-        <v>6916.6356</v>
+        <v>5133.5001</v>
       </c>
       <c r="G17" t="n">
-        <v>465.2099999999998</v>
+        <v>465.1099999999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>476</v>
+        <v>474.9</v>
       </c>
       <c r="C18" t="n">
         <v>476</v>
@@ -1002,13 +1002,13 @@
         <v>476</v>
       </c>
       <c r="E18" t="n">
-        <v>476</v>
+        <v>473.9</v>
       </c>
       <c r="F18" t="n">
-        <v>371.0965</v>
+        <v>6916.6356</v>
       </c>
       <c r="G18" t="n">
-        <v>465.323333333333</v>
+        <v>465.2099999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>476</v>
       </c>
       <c r="F19" t="n">
-        <v>70.6491</v>
+        <v>371.0965</v>
       </c>
       <c r="G19" t="n">
-        <v>465.4233333333331</v>
+        <v>465.323333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>472.2</v>
+        <v>476</v>
       </c>
       <c r="C20" t="n">
-        <v>472.2</v>
+        <v>476</v>
       </c>
       <c r="D20" t="n">
-        <v>472.2</v>
+        <v>476</v>
       </c>
       <c r="E20" t="n">
-        <v>472.2</v>
+        <v>476</v>
       </c>
       <c r="F20" t="n">
         <v>70.6491</v>
       </c>
       <c r="G20" t="n">
-        <v>465.4999999999998</v>
+        <v>465.4233333333331</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>473.5</v>
+        <v>472.2</v>
       </c>
       <c r="C21" t="n">
-        <v>473.5</v>
+        <v>472.2</v>
       </c>
       <c r="D21" t="n">
-        <v>473.5</v>
+        <v>472.2</v>
       </c>
       <c r="E21" t="n">
-        <v>473.5</v>
+        <v>472.2</v>
       </c>
       <c r="F21" t="n">
-        <v>140</v>
+        <v>70.6491</v>
       </c>
       <c r="G21" t="n">
-        <v>465.5583333333331</v>
+        <v>465.4999999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>473.4</v>
+        <v>473.5</v>
       </c>
       <c r="C22" t="n">
-        <v>473.4</v>
+        <v>473.5</v>
       </c>
       <c r="D22" t="n">
-        <v>473.4</v>
+        <v>473.5</v>
       </c>
       <c r="E22" t="n">
-        <v>473.4</v>
+        <v>473.5</v>
       </c>
       <c r="F22" t="n">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G22" t="n">
-        <v>465.6549999999998</v>
+        <v>465.5583333333331</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>473.3</v>
+        <v>473.4</v>
       </c>
       <c r="C23" t="n">
-        <v>473.3</v>
+        <v>473.4</v>
       </c>
       <c r="D23" t="n">
-        <v>473.3</v>
+        <v>473.4</v>
       </c>
       <c r="E23" t="n">
-        <v>473.3</v>
+        <v>473.4</v>
       </c>
       <c r="F23" t="n">
-        <v>222.6</v>
+        <v>152</v>
       </c>
       <c r="G23" t="n">
-        <v>465.7266666666665</v>
+        <v>465.6549999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>473.3</v>
       </c>
       <c r="F24" t="n">
-        <v>391.5599</v>
+        <v>222.6</v>
       </c>
       <c r="G24" t="n">
-        <v>465.7366666666665</v>
+        <v>465.7266666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>473.3</v>
       </c>
       <c r="C25" t="n">
-        <v>472.3</v>
+        <v>473.3</v>
       </c>
       <c r="D25" t="n">
         <v>473.3</v>
       </c>
       <c r="E25" t="n">
-        <v>472.3</v>
+        <v>473.3</v>
       </c>
       <c r="F25" t="n">
-        <v>422.6</v>
+        <v>391.5599</v>
       </c>
       <c r="G25" t="n">
-        <v>465.6916666666664</v>
+        <v>465.7366666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>472.2</v>
+        <v>473.3</v>
       </c>
       <c r="C26" t="n">
-        <v>470.4</v>
+        <v>472.3</v>
       </c>
       <c r="D26" t="n">
-        <v>472.2</v>
+        <v>473.3</v>
       </c>
       <c r="E26" t="n">
-        <v>470.4</v>
+        <v>472.3</v>
       </c>
       <c r="F26" t="n">
-        <v>678.2624</v>
+        <v>422.6</v>
       </c>
       <c r="G26" t="n">
-        <v>465.6149999999998</v>
+        <v>465.6916666666664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>469.3</v>
+        <v>472.2</v>
       </c>
       <c r="C27" t="n">
-        <v>468.2</v>
+        <v>470.4</v>
       </c>
       <c r="D27" t="n">
-        <v>469.3</v>
+        <v>472.2</v>
       </c>
       <c r="E27" t="n">
-        <v>468.2</v>
+        <v>470.4</v>
       </c>
       <c r="F27" t="n">
-        <v>290.9527</v>
+        <v>678.2624</v>
       </c>
       <c r="G27" t="n">
-        <v>465.5016666666664</v>
+        <v>465.6149999999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>468.2</v>
+        <v>469.3</v>
       </c>
       <c r="C28" t="n">
         <v>468.2</v>
       </c>
       <c r="D28" t="n">
-        <v>468.2</v>
+        <v>469.3</v>
       </c>
       <c r="E28" t="n">
         <v>468.2</v>
       </c>
       <c r="F28" t="n">
-        <v>149.0473</v>
+        <v>290.9527</v>
       </c>
       <c r="G28" t="n">
-        <v>465.3883333333332</v>
+        <v>465.5016666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>467.1</v>
+        <v>468.2</v>
       </c>
       <c r="C29" t="n">
-        <v>464.8</v>
+        <v>468.2</v>
       </c>
       <c r="D29" t="n">
-        <v>467.1</v>
+        <v>468.2</v>
       </c>
       <c r="E29" t="n">
-        <v>464.8</v>
+        <v>468.2</v>
       </c>
       <c r="F29" t="n">
-        <v>270</v>
+        <v>149.0473</v>
       </c>
       <c r="G29" t="n">
-        <v>465.1799999999998</v>
+        <v>465.3883333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,19 +1413,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>475</v>
+        <v>467.1</v>
       </c>
       <c r="C30" t="n">
-        <v>475</v>
+        <v>464.8</v>
       </c>
       <c r="D30" t="n">
-        <v>475</v>
+        <v>467.1</v>
       </c>
       <c r="E30" t="n">
-        <v>475</v>
+        <v>464.8</v>
       </c>
       <c r="F30" t="n">
-        <v>1.2</v>
+        <v>270</v>
       </c>
       <c r="G30" t="n">
         <v>465.1799999999998</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C31" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D31" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E31" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F31" t="n">
-        <v>182.7</v>
+        <v>1.2</v>
       </c>
       <c r="G31" t="n">
-        <v>465.1966666666665</v>
+        <v>465.1799999999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>474</v>
       </c>
       <c r="C32" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D32" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E32" t="n">
         <v>474</v>
       </c>
       <c r="F32" t="n">
-        <v>958.6640894736842</v>
+        <v>182.7</v>
       </c>
       <c r="G32" t="n">
-        <v>465.2333333333332</v>
+        <v>465.1966666666665</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C33" t="n">
         <v>475</v>
@@ -1527,13 +1527,13 @@
         <v>475</v>
       </c>
       <c r="E33" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F33" t="n">
-        <v>1.1</v>
+        <v>958.6640894736842</v>
       </c>
       <c r="G33" t="n">
-        <v>465.2699999999998</v>
+        <v>465.2333333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>474.9</v>
+        <v>475</v>
       </c>
       <c r="C34" t="n">
-        <v>465.8</v>
+        <v>475</v>
       </c>
       <c r="D34" t="n">
-        <v>474.9</v>
+        <v>475</v>
       </c>
       <c r="E34" t="n">
-        <v>465.8</v>
+        <v>475</v>
       </c>
       <c r="F34" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="G34" t="n">
-        <v>465.1533333333331</v>
+        <v>465.2699999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>471</v>
+        <v>474.9</v>
       </c>
       <c r="C35" t="n">
-        <v>471</v>
+        <v>465.8</v>
       </c>
       <c r="D35" t="n">
-        <v>471</v>
+        <v>474.9</v>
       </c>
       <c r="E35" t="n">
-        <v>471</v>
+        <v>465.8</v>
       </c>
       <c r="F35" t="n">
-        <v>16.614</v>
+        <v>2.4</v>
       </c>
       <c r="G35" t="n">
-        <v>465.1233333333332</v>
+        <v>465.1533333333331</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C36" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D36" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E36" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F36" t="n">
-        <v>1140.5906</v>
+        <v>16.614</v>
       </c>
       <c r="G36" t="n">
-        <v>465.0083333333332</v>
+        <v>465.1233333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C37" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D37" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E37" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F37" t="n">
-        <v>34.7033</v>
+        <v>1140.5906</v>
       </c>
       <c r="G37" t="n">
-        <v>464.9449999999998</v>
+        <v>465.0083333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C38" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D38" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E38" t="n">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F38" t="n">
-        <v>5776.1862</v>
+        <v>34.7033</v>
       </c>
       <c r="G38" t="n">
-        <v>464.9016666666665</v>
+        <v>464.9449999999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>464.8</v>
+        <v>470</v>
       </c>
       <c r="C39" t="n">
-        <v>464.8</v>
+        <v>470</v>
       </c>
       <c r="D39" t="n">
-        <v>464.8</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>464.8</v>
+        <v>469</v>
       </c>
       <c r="F39" t="n">
-        <v>7.1955</v>
+        <v>5776.1862</v>
       </c>
       <c r="G39" t="n">
-        <v>464.7716666666665</v>
+        <v>464.9016666666665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>465</v>
+        <v>464.8</v>
       </c>
       <c r="C40" t="n">
-        <v>465</v>
+        <v>464.8</v>
       </c>
       <c r="D40" t="n">
-        <v>465</v>
+        <v>464.8</v>
       </c>
       <c r="E40" t="n">
-        <v>465</v>
+        <v>464.8</v>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>7.1955</v>
       </c>
       <c r="G40" t="n">
-        <v>464.6883333333332</v>
+        <v>464.7716666666665</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C41" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D41" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E41" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>464.7299999999998</v>
+        <v>464.6883333333332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>470</v>
       </c>
       <c r="F42" t="n">
-        <v>182.1321</v>
+        <v>1.1</v>
       </c>
       <c r="G42" t="n">
-        <v>464.7949999999999</v>
+        <v>464.7299999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>470</v>
       </c>
       <c r="F43" t="n">
-        <v>1289.0583</v>
+        <v>182.1321</v>
       </c>
       <c r="G43" t="n">
-        <v>464.8583333333332</v>
+        <v>464.7949999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C44" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D44" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="E44" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F44" t="n">
-        <v>695.6015</v>
+        <v>1289.0583</v>
       </c>
       <c r="G44" t="n">
-        <v>464.8399999999999</v>
+        <v>464.8583333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C45" t="n">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D45" t="n">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E45" t="n">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F45" t="n">
-        <v>104.7436</v>
+        <v>695.6015</v>
       </c>
       <c r="G45" t="n">
-        <v>464.9733333333332</v>
+        <v>464.8399999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="C46" t="n">
-        <v>465.5</v>
+        <v>473</v>
       </c>
       <c r="D46" t="n">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5</v>
+        <v>473</v>
       </c>
       <c r="F46" t="n">
-        <v>1177.6011</v>
+        <v>104.7436</v>
       </c>
       <c r="G46" t="n">
-        <v>465.0266666666666</v>
+        <v>464.9733333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>465.5</v>
+        <v>468</v>
       </c>
       <c r="C47" t="n">
         <v>465.5</v>
       </c>
       <c r="D47" t="n">
-        <v>465.5</v>
+        <v>468</v>
       </c>
       <c r="E47" t="n">
         <v>465.5</v>
       </c>
       <c r="F47" t="n">
-        <v>1367.4614</v>
+        <v>1177.6011</v>
       </c>
       <c r="G47" t="n">
-        <v>465.1099999999999</v>
+        <v>465.0266666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>465.4</v>
+        <v>465.5</v>
       </c>
       <c r="C48" t="n">
-        <v>463.9</v>
+        <v>465.5</v>
       </c>
       <c r="D48" t="n">
-        <v>465.4</v>
+        <v>465.5</v>
       </c>
       <c r="E48" t="n">
-        <v>458</v>
+        <v>465.5</v>
       </c>
       <c r="F48" t="n">
-        <v>3451.6333</v>
+        <v>1367.4614</v>
       </c>
       <c r="G48" t="n">
-        <v>465.175</v>
+        <v>465.1099999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>464</v>
+        <v>465.4</v>
       </c>
       <c r="C49" t="n">
-        <v>464</v>
+        <v>463.9</v>
       </c>
       <c r="D49" t="n">
-        <v>464</v>
+        <v>465.4</v>
       </c>
       <c r="E49" t="n">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F49" t="n">
-        <v>550</v>
+        <v>3451.6333</v>
       </c>
       <c r="G49" t="n">
-        <v>465.2416666666666</v>
+        <v>465.175</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>465.6</v>
+        <v>464</v>
       </c>
       <c r="C50" t="n">
-        <v>465.6</v>
+        <v>464</v>
       </c>
       <c r="D50" t="n">
-        <v>465.6</v>
+        <v>464</v>
       </c>
       <c r="E50" t="n">
-        <v>465.6</v>
+        <v>464</v>
       </c>
       <c r="F50" t="n">
-        <v>119.9</v>
+        <v>550</v>
       </c>
       <c r="G50" t="n">
-        <v>465.3416666666666</v>
+        <v>465.2416666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>463</v>
+        <v>465.6</v>
       </c>
       <c r="C51" t="n">
-        <v>458.7</v>
+        <v>465.6</v>
       </c>
       <c r="D51" t="n">
-        <v>463</v>
+        <v>465.6</v>
       </c>
       <c r="E51" t="n">
-        <v>458.7</v>
+        <v>465.6</v>
       </c>
       <c r="F51" t="n">
-        <v>1413.4225</v>
+        <v>119.9</v>
       </c>
       <c r="G51" t="n">
-        <v>465.3266666666667</v>
+        <v>465.3416666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>457.8</v>
+        <v>463</v>
       </c>
       <c r="C52" t="n">
-        <v>457.8</v>
+        <v>458.7</v>
       </c>
       <c r="D52" t="n">
-        <v>457.8</v>
+        <v>463</v>
       </c>
       <c r="E52" t="n">
-        <v>457.8</v>
+        <v>458.7</v>
       </c>
       <c r="F52" t="n">
-        <v>686.5775</v>
+        <v>1413.4225</v>
       </c>
       <c r="G52" t="n">
-        <v>465.2966666666667</v>
+        <v>465.3266666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>464.4</v>
+        <v>457.8</v>
       </c>
       <c r="C53" t="n">
-        <v>464.4</v>
+        <v>457.8</v>
       </c>
       <c r="D53" t="n">
-        <v>464.4</v>
+        <v>457.8</v>
       </c>
       <c r="E53" t="n">
-        <v>464.4</v>
+        <v>457.8</v>
       </c>
       <c r="F53" t="n">
-        <v>1033.057</v>
+        <v>686.5775</v>
       </c>
       <c r="G53" t="n">
-        <v>465.6366666666667</v>
+        <v>465.2966666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>465.6</v>
+        <v>464.4</v>
       </c>
       <c r="C54" t="n">
-        <v>465.6</v>
+        <v>464.4</v>
       </c>
       <c r="D54" t="n">
-        <v>465.6</v>
+        <v>464.4</v>
       </c>
       <c r="E54" t="n">
-        <v>465.6</v>
+        <v>464.4</v>
       </c>
       <c r="F54" t="n">
-        <v>118.7</v>
+        <v>1033.057</v>
       </c>
       <c r="G54" t="n">
-        <v>465.995</v>
+        <v>465.6366666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>465.6</v>
       </c>
       <c r="F55" t="n">
-        <v>119.9</v>
+        <v>118.7</v>
       </c>
       <c r="G55" t="n">
-        <v>466.2383333333333</v>
+        <v>465.995</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>465</v>
+        <v>465.6</v>
       </c>
       <c r="C56" t="n">
-        <v>465</v>
+        <v>465.6</v>
       </c>
       <c r="D56" t="n">
-        <v>465</v>
+        <v>465.6</v>
       </c>
       <c r="E56" t="n">
-        <v>465</v>
+        <v>465.6</v>
       </c>
       <c r="F56" t="n">
-        <v>2045.2157</v>
+        <v>119.9</v>
       </c>
       <c r="G56" t="n">
-        <v>466.46</v>
+        <v>466.2383333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>460.6</v>
+        <v>465</v>
       </c>
       <c r="C57" t="n">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D57" t="n">
-        <v>460.6</v>
+        <v>465</v>
       </c>
       <c r="E57" t="n">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F57" t="n">
-        <v>5323.2984</v>
+        <v>2045.2157</v>
       </c>
       <c r="G57" t="n">
-        <v>466.5816666666666</v>
+        <v>466.46</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>463.9</v>
+        <v>460.6</v>
       </c>
       <c r="C58" t="n">
-        <v>463.9</v>
+        <v>458</v>
       </c>
       <c r="D58" t="n">
-        <v>463.9</v>
+        <v>460.6</v>
       </c>
       <c r="E58" t="n">
-        <v>463.9</v>
+        <v>458</v>
       </c>
       <c r="F58" t="n">
-        <v>1.125</v>
+        <v>5323.2984</v>
       </c>
       <c r="G58" t="n">
-        <v>466.8633333333333</v>
+        <v>466.5816666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>460</v>
+        <v>463.9</v>
       </c>
       <c r="C59" t="n">
-        <v>458.4</v>
+        <v>463.9</v>
       </c>
       <c r="D59" t="n">
-        <v>460</v>
+        <v>463.9</v>
       </c>
       <c r="E59" t="n">
-        <v>458.4</v>
+        <v>463.9</v>
       </c>
       <c r="F59" t="n">
-        <v>265.2223</v>
+        <v>1.125</v>
       </c>
       <c r="G59" t="n">
-        <v>466.9216666666667</v>
+        <v>466.8633333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>458.4</v>
+        <v>460</v>
       </c>
       <c r="C60" t="n">
         <v>458.4</v>
       </c>
       <c r="D60" t="n">
-        <v>458.4</v>
+        <v>460</v>
       </c>
       <c r="E60" t="n">
         <v>458.4</v>
       </c>
       <c r="F60" t="n">
-        <v>798.877</v>
+        <v>265.2223</v>
       </c>
       <c r="G60" t="n">
-        <v>466.9633333333333</v>
+        <v>466.9216666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>462.5</v>
+        <v>458.4</v>
       </c>
       <c r="C61" t="n">
-        <v>462.5</v>
+        <v>458.4</v>
       </c>
       <c r="D61" t="n">
-        <v>462.5</v>
+        <v>458.4</v>
       </c>
       <c r="E61" t="n">
-        <v>462.5</v>
+        <v>458.4</v>
       </c>
       <c r="F61" t="n">
         <v>798.877</v>
       </c>
       <c r="G61" t="n">
-        <v>467.0716666666667</v>
+        <v>466.9633333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>463.9</v>
+        <v>462.5</v>
       </c>
       <c r="C62" t="n">
-        <v>466</v>
+        <v>462.5</v>
       </c>
       <c r="D62" t="n">
-        <v>466</v>
+        <v>462.5</v>
       </c>
       <c r="E62" t="n">
-        <v>463.9</v>
+        <v>462.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1405.3734</v>
+        <v>798.877</v>
       </c>
       <c r="G62" t="n">
-        <v>467.24</v>
+        <v>467.0716666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>460</v>
+        <v>463.9</v>
       </c>
       <c r="C63" t="n">
-        <v>458.4</v>
+        <v>466</v>
       </c>
       <c r="D63" t="n">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E63" t="n">
-        <v>458.1</v>
+        <v>463.9</v>
       </c>
       <c r="F63" t="n">
-        <v>4389.2385</v>
+        <v>1405.3734</v>
       </c>
       <c r="G63" t="n">
-        <v>467.28</v>
+        <v>467.24</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>466.6</v>
+        <v>460</v>
       </c>
       <c r="C64" t="n">
-        <v>466.6</v>
+        <v>458.4</v>
       </c>
       <c r="D64" t="n">
-        <v>466.6</v>
+        <v>460</v>
       </c>
       <c r="E64" t="n">
-        <v>466.6</v>
+        <v>458.1</v>
       </c>
       <c r="F64" t="n">
-        <v>1.2</v>
+        <v>4389.2385</v>
       </c>
       <c r="G64" t="n">
-        <v>467.4399999999999</v>
+        <v>467.28</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>460.4</v>
+        <v>466.6</v>
       </c>
       <c r="C65" t="n">
-        <v>460.4</v>
+        <v>466.6</v>
       </c>
       <c r="D65" t="n">
-        <v>460.4</v>
+        <v>466.6</v>
       </c>
       <c r="E65" t="n">
-        <v>460.4</v>
+        <v>466.6</v>
       </c>
       <c r="F65" t="n">
-        <v>20.5155</v>
+        <v>1.2</v>
       </c>
       <c r="G65" t="n">
-        <v>467.4966666666667</v>
+        <v>467.4399999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>461.5</v>
+        <v>460.4</v>
       </c>
       <c r="C66" t="n">
-        <v>457.9</v>
+        <v>460.4</v>
       </c>
       <c r="D66" t="n">
-        <v>461.5</v>
+        <v>460.4</v>
       </c>
       <c r="E66" t="n">
-        <v>457.9</v>
+        <v>460.4</v>
       </c>
       <c r="F66" t="n">
-        <v>2962.475</v>
+        <v>20.5155</v>
       </c>
       <c r="G66" t="n">
-        <v>467.4533333333333</v>
+        <v>467.4966666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>458</v>
+        <v>461.5</v>
       </c>
       <c r="C67" t="n">
-        <v>458</v>
+        <v>457.9</v>
       </c>
       <c r="D67" t="n">
-        <v>458</v>
+        <v>461.5</v>
       </c>
       <c r="E67" t="n">
-        <v>458</v>
+        <v>457.9</v>
       </c>
       <c r="F67" t="n">
-        <v>24.4472</v>
+        <v>2962.475</v>
       </c>
       <c r="G67" t="n">
-        <v>467.3833333333333</v>
+        <v>467.4533333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>24.4472</v>
       </c>
       <c r="G68" t="n">
-        <v>467.3083333333333</v>
+        <v>467.3833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C69" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D69" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E69" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F69" t="n">
-        <v>14.1297</v>
+        <v>24.4472</v>
       </c>
       <c r="G69" t="n">
-        <v>467.3033333333333</v>
+        <v>467.3083333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,19 +2813,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C70" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D70" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E70" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>14.1297</v>
       </c>
       <c r="G70" t="n">
         <v>467.3033333333333</v>
@@ -2851,19 +2851,19 @@
         <v>462</v>
       </c>
       <c r="C71" t="n">
-        <v>464.2</v>
+        <v>462</v>
       </c>
       <c r="D71" t="n">
-        <v>464.2</v>
+        <v>462</v>
       </c>
       <c r="E71" t="n">
         <v>462</v>
       </c>
       <c r="F71" t="n">
-        <v>206.2136</v>
+        <v>100</v>
       </c>
       <c r="G71" t="n">
-        <v>467.2633333333334</v>
+        <v>467.3033333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C72" t="n">
-        <v>460</v>
+        <v>464.2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>464.2</v>
       </c>
       <c r="E72" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F72" t="n">
-        <v>70.0604</v>
+        <v>206.2136</v>
       </c>
       <c r="G72" t="n">
-        <v>467.1533333333334</v>
+        <v>467.2633333333334</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>462.7</v>
+        <v>460</v>
       </c>
       <c r="C73" t="n">
-        <v>462.7</v>
+        <v>460</v>
       </c>
       <c r="D73" t="n">
-        <v>462.7</v>
+        <v>460</v>
       </c>
       <c r="E73" t="n">
-        <v>462.7</v>
+        <v>460</v>
       </c>
       <c r="F73" t="n">
-        <v>1.1</v>
+        <v>70.0604</v>
       </c>
       <c r="G73" t="n">
-        <v>467.0833333333334</v>
+        <v>467.1533333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>461</v>
+        <v>462.7</v>
       </c>
       <c r="C74" t="n">
-        <v>461</v>
+        <v>462.7</v>
       </c>
       <c r="D74" t="n">
-        <v>461</v>
+        <v>462.7</v>
       </c>
       <c r="E74" t="n">
-        <v>461</v>
+        <v>462.7</v>
       </c>
       <c r="F74" t="n">
-        <v>84</v>
+        <v>1.1</v>
       </c>
       <c r="G74" t="n">
-        <v>466.8016666666667</v>
+        <v>467.0833333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>464.6</v>
+        <v>461</v>
       </c>
       <c r="C75" t="n">
-        <v>464.6</v>
+        <v>461</v>
       </c>
       <c r="D75" t="n">
-        <v>464.6</v>
+        <v>461</v>
       </c>
       <c r="E75" t="n">
-        <v>464.6</v>
+        <v>461</v>
       </c>
       <c r="F75" t="n">
-        <v>1.2012</v>
+        <v>84</v>
       </c>
       <c r="G75" t="n">
-        <v>466.6466666666666</v>
+        <v>466.8016666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>460</v>
+        <v>464.6</v>
       </c>
       <c r="C76" t="n">
-        <v>459.1</v>
+        <v>464.6</v>
       </c>
       <c r="D76" t="n">
-        <v>460</v>
+        <v>464.6</v>
       </c>
       <c r="E76" t="n">
-        <v>459.1</v>
+        <v>464.6</v>
       </c>
       <c r="F76" t="n">
-        <v>500</v>
+        <v>1.2012</v>
       </c>
       <c r="G76" t="n">
-        <v>466.3816666666666</v>
+        <v>466.6466666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>460</v>
+      </c>
+      <c r="C77" t="n">
         <v>459.1</v>
       </c>
-      <c r="C77" t="n">
-        <v>459</v>
-      </c>
       <c r="D77" t="n">
+        <v>460</v>
+      </c>
+      <c r="E77" t="n">
         <v>459.1</v>
       </c>
-      <c r="E77" t="n">
-        <v>459</v>
-      </c>
       <c r="F77" t="n">
-        <v>2302.3607</v>
+        <v>500</v>
       </c>
       <c r="G77" t="n">
-        <v>466.0983333333333</v>
+        <v>466.3816666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="C78" t="n">
         <v>459</v>
       </c>
-      <c r="C78" t="n">
-        <v>458.5</v>
-      </c>
       <c r="D78" t="n">
+        <v>459.1</v>
+      </c>
+      <c r="E78" t="n">
         <v>459</v>
       </c>
-      <c r="E78" t="n">
-        <v>458.5</v>
-      </c>
       <c r="F78" t="n">
-        <v>165.1196</v>
+        <v>2302.3607</v>
       </c>
       <c r="G78" t="n">
-        <v>465.8066666666666</v>
+        <v>466.0983333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>459</v>
+      </c>
+      <c r="C79" t="n">
         <v>458.5</v>
       </c>
-      <c r="C79" t="n">
-        <v>462.9</v>
-      </c>
       <c r="D79" t="n">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E79" t="n">
         <v>458.5</v>
       </c>
       <c r="F79" t="n">
-        <v>3.24</v>
+        <v>165.1196</v>
       </c>
       <c r="G79" t="n">
-        <v>465.5883333333333</v>
+        <v>465.8066666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>458</v>
+        <v>458.5</v>
       </c>
       <c r="C80" t="n">
-        <v>458</v>
+        <v>462.9</v>
       </c>
       <c r="D80" t="n">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E80" t="n">
-        <v>458</v>
+        <v>458.5</v>
       </c>
       <c r="F80" t="n">
-        <v>3000</v>
+        <v>3.24</v>
       </c>
       <c r="G80" t="n">
-        <v>465.3516666666666</v>
+        <v>465.5883333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>458</v>
       </c>
       <c r="F81" t="n">
-        <v>8994.105799999999</v>
+        <v>3000</v>
       </c>
       <c r="G81" t="n">
-        <v>465.0933333333333</v>
+        <v>465.3516666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>458</v>
       </c>
       <c r="F82" t="n">
-        <v>9825.608</v>
+        <v>8994.105799999999</v>
       </c>
       <c r="G82" t="n">
-        <v>464.8366666666666</v>
+        <v>465.0933333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>458</v>
       </c>
       <c r="C83" t="n">
-        <v>457.6</v>
+        <v>458</v>
       </c>
       <c r="D83" t="n">
         <v>458</v>
       </c>
       <c r="E83" t="n">
-        <v>457.6</v>
+        <v>458</v>
       </c>
       <c r="F83" t="n">
-        <v>2323.6968</v>
+        <v>9825.608</v>
       </c>
       <c r="G83" t="n">
-        <v>464.5749999999999</v>
+        <v>464.8366666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C84" t="n">
-        <v>457</v>
+        <v>457.6</v>
       </c>
       <c r="D84" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E84" t="n">
-        <v>457</v>
+        <v>457.6</v>
       </c>
       <c r="F84" t="n">
-        <v>69.3219</v>
+        <v>2323.6968</v>
       </c>
       <c r="G84" t="n">
-        <v>464.3033333333333</v>
+        <v>464.5749999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>457</v>
       </c>
       <c r="F85" t="n">
-        <v>930.6781</v>
+        <v>69.3219</v>
       </c>
       <c r="G85" t="n">
-        <v>464.0483333333333</v>
+        <v>464.3033333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C86" t="n">
-        <v>464.5</v>
+        <v>457</v>
       </c>
       <c r="D86" t="n">
-        <v>464.5</v>
+        <v>457</v>
       </c>
       <c r="E86" t="n">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F86" t="n">
-        <v>2.4</v>
+        <v>930.6781</v>
       </c>
       <c r="G86" t="n">
-        <v>463.9499999999999</v>
+        <v>464.0483333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C87" t="n">
-        <v>456</v>
+        <v>464.5</v>
       </c>
       <c r="D87" t="n">
-        <v>456</v>
+        <v>464.5</v>
       </c>
       <c r="E87" t="n">
-        <v>455.7</v>
+        <v>462</v>
       </c>
       <c r="F87" t="n">
-        <v>9760.3128</v>
+        <v>2.4</v>
       </c>
       <c r="G87" t="n">
-        <v>463.7466666666666</v>
+        <v>463.9499999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C88" t="n">
-        <v>463.5</v>
+        <v>456</v>
       </c>
       <c r="D88" t="n">
-        <v>463.5</v>
+        <v>456</v>
       </c>
       <c r="E88" t="n">
-        <v>460</v>
+        <v>455.7</v>
       </c>
       <c r="F88" t="n">
-        <v>3.6</v>
+        <v>9760.3128</v>
       </c>
       <c r="G88" t="n">
-        <v>463.6683333333332</v>
+        <v>463.7466666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3481,19 @@
         <v>460</v>
       </c>
       <c r="C89" t="n">
-        <v>460</v>
+        <v>463.5</v>
       </c>
       <c r="D89" t="n">
-        <v>460</v>
+        <v>463.5</v>
       </c>
       <c r="E89" t="n">
         <v>460</v>
       </c>
       <c r="F89" t="n">
-        <v>31.4616</v>
+        <v>3.6</v>
       </c>
       <c r="G89" t="n">
-        <v>463.5883333333333</v>
+        <v>463.6683333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>464.5</v>
+        <v>460</v>
       </c>
       <c r="C90" t="n">
-        <v>464.5</v>
+        <v>460</v>
       </c>
       <c r="D90" t="n">
-        <v>464.5</v>
+        <v>460</v>
       </c>
       <c r="E90" t="n">
-        <v>464.5</v>
+        <v>460</v>
       </c>
       <c r="F90" t="n">
-        <v>1.2</v>
+        <v>31.4616</v>
       </c>
       <c r="G90" t="n">
-        <v>463.4133333333332</v>
+        <v>463.5883333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>463.5</v>
+        <v>464.5</v>
       </c>
       <c r="C91" t="n">
         <v>464.5</v>
@@ -3557,13 +3557,13 @@
         <v>464.5</v>
       </c>
       <c r="E91" t="n">
-        <v>463.5</v>
+        <v>464.5</v>
       </c>
       <c r="F91" t="n">
-        <v>1382.5902</v>
+        <v>1.2</v>
       </c>
       <c r="G91" t="n">
-        <v>463.2549999999999</v>
+        <v>463.4133333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>460</v>
+        <v>463.5</v>
       </c>
       <c r="C92" t="n">
-        <v>460</v>
+        <v>464.5</v>
       </c>
       <c r="D92" t="n">
-        <v>460</v>
+        <v>464.5</v>
       </c>
       <c r="E92" t="n">
-        <v>460</v>
+        <v>463.5</v>
       </c>
       <c r="F92" t="n">
-        <v>200</v>
+        <v>1382.5902</v>
       </c>
       <c r="G92" t="n">
-        <v>463.0049999999999</v>
+        <v>463.2549999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C93" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D93" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E93" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F93" t="n">
-        <v>16.9736</v>
+        <v>200</v>
       </c>
       <c r="G93" t="n">
-        <v>462.7383333333333</v>
+        <v>463.0049999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>459</v>
       </c>
       <c r="C94" t="n">
-        <v>455.7</v>
+        <v>459</v>
       </c>
       <c r="D94" t="n">
         <v>459</v>
       </c>
       <c r="E94" t="n">
-        <v>455.7</v>
+        <v>459</v>
       </c>
       <c r="F94" t="n">
-        <v>10346.0926</v>
+        <v>16.9736</v>
       </c>
       <c r="G94" t="n">
-        <v>462.5699999999999</v>
+        <v>462.7383333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C95" t="n">
-        <v>451.1</v>
+        <v>455.7</v>
       </c>
       <c r="D95" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E95" t="n">
-        <v>451.1</v>
+        <v>455.7</v>
       </c>
       <c r="F95" t="n">
-        <v>9694.3907</v>
+        <v>10346.0926</v>
       </c>
       <c r="G95" t="n">
-        <v>462.2383333333333</v>
+        <v>462.5699999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>451.1</v>
+        <v>457</v>
       </c>
       <c r="C96" t="n">
         <v>451.1</v>
       </c>
       <c r="D96" t="n">
-        <v>451.1</v>
+        <v>457</v>
       </c>
       <c r="E96" t="n">
         <v>451.1</v>
       </c>
       <c r="F96" t="n">
-        <v>739.8611</v>
+        <v>9694.3907</v>
       </c>
       <c r="G96" t="n">
-        <v>461.9233333333332</v>
+        <v>462.2383333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>459.7</v>
+        <v>451.1</v>
       </c>
       <c r="C97" t="n">
-        <v>459.7</v>
+        <v>451.1</v>
       </c>
       <c r="D97" t="n">
-        <v>459.7</v>
+        <v>451.1</v>
       </c>
       <c r="E97" t="n">
-        <v>459.7</v>
+        <v>451.1</v>
       </c>
       <c r="F97" t="n">
-        <v>5.1072</v>
+        <v>739.8611</v>
       </c>
       <c r="G97" t="n">
-        <v>461.7683333333333</v>
+        <v>461.9233333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>459.7</v>
       </c>
       <c r="F98" t="n">
-        <v>64.89279999999999</v>
+        <v>5.1072</v>
       </c>
       <c r="G98" t="n">
-        <v>461.5966666666666</v>
+        <v>461.7683333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>458</v>
+        <v>459.7</v>
       </c>
       <c r="C99" t="n">
-        <v>458</v>
+        <v>459.7</v>
       </c>
       <c r="D99" t="n">
-        <v>458</v>
+        <v>459.7</v>
       </c>
       <c r="E99" t="n">
-        <v>458</v>
+        <v>459.7</v>
       </c>
       <c r="F99" t="n">
-        <v>34.6872</v>
+        <v>64.89279999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>461.4833333333333</v>
+        <v>461.5966666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>458.5</v>
+        <v>458</v>
       </c>
       <c r="C100" t="n">
-        <v>459.7</v>
+        <v>458</v>
       </c>
       <c r="D100" t="n">
-        <v>459.7</v>
+        <v>458</v>
       </c>
       <c r="E100" t="n">
-        <v>458.5</v>
+        <v>458</v>
       </c>
       <c r="F100" t="n">
-        <v>452.2744</v>
+        <v>34.6872</v>
       </c>
       <c r="G100" t="n">
-        <v>461.3949999999999</v>
+        <v>461.4833333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>459.7</v>
+        <v>458.5</v>
       </c>
       <c r="C101" t="n">
         <v>459.7</v>
@@ -3907,13 +3907,13 @@
         <v>459.7</v>
       </c>
       <c r="E101" t="n">
-        <v>459.7</v>
+        <v>458.5</v>
       </c>
       <c r="F101" t="n">
-        <v>12712.2096</v>
+        <v>452.2744</v>
       </c>
       <c r="G101" t="n">
-        <v>461.2233333333333</v>
+        <v>461.3949999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>456</v>
+        <v>459.7</v>
       </c>
       <c r="C102" t="n">
-        <v>456</v>
+        <v>459.7</v>
       </c>
       <c r="D102" t="n">
-        <v>456</v>
+        <v>459.7</v>
       </c>
       <c r="E102" t="n">
-        <v>456</v>
+        <v>459.7</v>
       </c>
       <c r="F102" t="n">
-        <v>163.2699</v>
+        <v>12712.2096</v>
       </c>
       <c r="G102" t="n">
-        <v>460.99</v>
+        <v>461.2233333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>455.2</v>
+        <v>456</v>
       </c>
       <c r="C103" t="n">
-        <v>455.2</v>
+        <v>456</v>
       </c>
       <c r="D103" t="n">
-        <v>455.2</v>
+        <v>456</v>
       </c>
       <c r="E103" t="n">
-        <v>455.1</v>
+        <v>456</v>
       </c>
       <c r="F103" t="n">
-        <v>2235.5605</v>
+        <v>163.2699</v>
       </c>
       <c r="G103" t="n">
-        <v>460.7433333333333</v>
+        <v>460.99</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>456</v>
+        <v>455.2</v>
       </c>
       <c r="C104" t="n">
-        <v>456</v>
+        <v>455.2</v>
       </c>
       <c r="D104" t="n">
-        <v>456</v>
+        <v>455.2</v>
       </c>
       <c r="E104" t="n">
-        <v>456</v>
+        <v>455.1</v>
       </c>
       <c r="F104" t="n">
-        <v>3831.6725</v>
+        <v>2235.5605</v>
       </c>
       <c r="G104" t="n">
-        <v>460.5933333333333</v>
+        <v>460.7433333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>455.1</v>
+        <v>456</v>
       </c>
       <c r="C105" t="n">
-        <v>455.1</v>
+        <v>456</v>
       </c>
       <c r="D105" t="n">
-        <v>455.1</v>
+        <v>456</v>
       </c>
       <c r="E105" t="n">
-        <v>455.1</v>
+        <v>456</v>
       </c>
       <c r="F105" t="n">
-        <v>523.5853</v>
+        <v>3831.6725</v>
       </c>
       <c r="G105" t="n">
-        <v>460.295</v>
+        <v>460.5933333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4076,19 @@
         <v>455.1</v>
       </c>
       <c r="C106" t="n">
-        <v>452.3</v>
+        <v>455.1</v>
       </c>
       <c r="D106" t="n">
         <v>455.1</v>
       </c>
       <c r="E106" t="n">
-        <v>452.3</v>
+        <v>455.1</v>
       </c>
       <c r="F106" t="n">
-        <v>731.8852000000001</v>
+        <v>523.5853</v>
       </c>
       <c r="G106" t="n">
-        <v>460.0749999999999</v>
+        <v>460.295</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>455.1</v>
+      </c>
+      <c r="C107" t="n">
         <v>452.3</v>
       </c>
-      <c r="C107" t="n">
-        <v>451.2</v>
-      </c>
       <c r="D107" t="n">
+        <v>455.1</v>
+      </c>
+      <c r="E107" t="n">
         <v>452.3</v>
       </c>
-      <c r="E107" t="n">
-        <v>451.2</v>
-      </c>
       <c r="F107" t="n">
-        <v>6183.3353</v>
+        <v>731.8852000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>459.8366666666666</v>
+        <v>460.0749999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>451.2</v>
+        <v>452.3</v>
       </c>
       <c r="C108" t="n">
         <v>451.2</v>
       </c>
       <c r="D108" t="n">
-        <v>451.2</v>
+        <v>452.3</v>
       </c>
       <c r="E108" t="n">
         <v>451.2</v>
       </c>
       <c r="F108" t="n">
-        <v>402.9235</v>
+        <v>6183.3353</v>
       </c>
       <c r="G108" t="n">
-        <v>459.6249999999999</v>
+        <v>459.8366666666666</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>451.2</v>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>402.9235</v>
       </c>
       <c r="G109" t="n">
-        <v>459.4116666666666</v>
+        <v>459.6249999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>451.3</v>
+        <v>451.2</v>
       </c>
       <c r="C110" t="n">
         <v>451.2</v>
       </c>
       <c r="D110" t="n">
-        <v>451.3</v>
+        <v>451.2</v>
       </c>
       <c r="E110" t="n">
         <v>451.2</v>
       </c>
       <c r="F110" t="n">
-        <v>17914.4472</v>
+        <v>200</v>
       </c>
       <c r="G110" t="n">
-        <v>459.1716666666667</v>
+        <v>459.4116666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>451.2</v>
+        <v>451.3</v>
       </c>
       <c r="C111" t="n">
         <v>451.2</v>
       </c>
       <c r="D111" t="n">
-        <v>451.2</v>
+        <v>451.3</v>
       </c>
       <c r="E111" t="n">
         <v>451.2</v>
       </c>
       <c r="F111" t="n">
-        <v>6201</v>
+        <v>17914.4472</v>
       </c>
       <c r="G111" t="n">
-        <v>459.0466666666667</v>
+        <v>459.1716666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>451.1</v>
+        <v>451.2</v>
       </c>
       <c r="C112" t="n">
-        <v>446</v>
+        <v>451.2</v>
       </c>
       <c r="D112" t="n">
-        <v>451.1</v>
+        <v>451.2</v>
       </c>
       <c r="E112" t="n">
-        <v>446</v>
+        <v>451.2</v>
       </c>
       <c r="F112" t="n">
-        <v>3581.6595</v>
+        <v>6201</v>
       </c>
       <c r="G112" t="n">
-        <v>458.85</v>
+        <v>459.0466666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>446</v>
+        <v>451.1</v>
       </c>
       <c r="C113" t="n">
         <v>446</v>
       </c>
       <c r="D113" t="n">
-        <v>446</v>
+        <v>451.1</v>
       </c>
       <c r="E113" t="n">
         <v>446</v>
       </c>
       <c r="F113" t="n">
-        <v>1300.8656</v>
+        <v>3581.6595</v>
       </c>
       <c r="G113" t="n">
-        <v>458.5433333333333</v>
+        <v>458.85</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>446</v>
       </c>
       <c r="F114" t="n">
-        <v>34.5874</v>
+        <v>1300.8656</v>
       </c>
       <c r="G114" t="n">
-        <v>458.2166666666666</v>
+        <v>458.5433333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C115" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D115" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E115" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F115" t="n">
-        <v>3855.6197</v>
+        <v>34.5874</v>
       </c>
       <c r="G115" t="n">
-        <v>457.9066666666667</v>
+        <v>458.2166666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>447</v>
       </c>
       <c r="F116" t="n">
-        <v>13.9125</v>
+        <v>3855.6197</v>
       </c>
       <c r="G116" t="n">
-        <v>457.6066666666667</v>
+        <v>457.9066666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>445.2</v>
+        <v>447</v>
       </c>
       <c r="C117" t="n">
-        <v>445.2</v>
+        <v>447</v>
       </c>
       <c r="D117" t="n">
-        <v>445.2</v>
+        <v>447</v>
       </c>
       <c r="E117" t="n">
-        <v>445.2</v>
+        <v>447</v>
       </c>
       <c r="F117" t="n">
-        <v>425.7158</v>
+        <v>13.9125</v>
       </c>
       <c r="G117" t="n">
-        <v>457.3933333333334</v>
+        <v>457.6066666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>445.2</v>
       </c>
       <c r="F118" t="n">
-        <v>9389.5771</v>
+        <v>425.7158</v>
       </c>
       <c r="G118" t="n">
-        <v>457.0816666666667</v>
+        <v>457.3933333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>445.2</v>
       </c>
       <c r="F119" t="n">
-        <v>203.2576</v>
+        <v>9389.5771</v>
       </c>
       <c r="G119" t="n">
-        <v>456.8616666666667</v>
+        <v>457.0816666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4575,10 @@
         <v>445.2</v>
       </c>
       <c r="F120" t="n">
-        <v>865.0619</v>
+        <v>203.2576</v>
       </c>
       <c r="G120" t="n">
-        <v>456.6416666666667</v>
+        <v>456.8616666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>445.1</v>
+        <v>445.2</v>
       </c>
       <c r="C121" t="n">
-        <v>445.1</v>
+        <v>445.2</v>
       </c>
       <c r="D121" t="n">
-        <v>445.1</v>
+        <v>445.2</v>
       </c>
       <c r="E121" t="n">
-        <v>445.1</v>
+        <v>445.2</v>
       </c>
       <c r="F121" t="n">
-        <v>1767.2898</v>
+        <v>865.0619</v>
       </c>
       <c r="G121" t="n">
-        <v>456.3516666666666</v>
+        <v>456.6416666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>445.1</v>
       </c>
       <c r="C122" t="n">
-        <v>444</v>
+        <v>445.1</v>
       </c>
       <c r="D122" t="n">
         <v>445.1</v>
       </c>
       <c r="E122" t="n">
-        <v>444</v>
+        <v>445.1</v>
       </c>
       <c r="F122" t="n">
-        <v>3237.3421</v>
+        <v>1767.2898</v>
       </c>
       <c r="G122" t="n">
-        <v>455.985</v>
+        <v>456.3516666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,35 +4668,31 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>445</v>
+        <v>445.1</v>
       </c>
       <c r="C123" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D123" t="n">
-        <v>445</v>
+        <v>445.1</v>
       </c>
       <c r="E123" t="n">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F123" t="n">
-        <v>8.244400000000001</v>
+        <v>3237.3421</v>
       </c>
       <c r="G123" t="n">
-        <v>455.7616666666666</v>
+        <v>455.985</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>444</v>
-      </c>
-      <c r="K123" t="n">
-        <v>444</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
@@ -4710,410 +4706,350 @@
         <v>445</v>
       </c>
       <c r="C124" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D124" t="n">
         <v>445</v>
       </c>
       <c r="E124" t="n">
+        <v>445</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8.244400000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>455.7616666666666</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>445</v>
+      </c>
+      <c r="C125" t="n">
         <v>444</v>
       </c>
-      <c r="F124" t="n">
+      <c r="D125" t="n">
+        <v>445</v>
+      </c>
+      <c r="E125" t="n">
+        <v>444</v>
+      </c>
+      <c r="F125" t="n">
         <v>3237.3422</v>
       </c>
-      <c r="G124" t="n">
+      <c r="G125" t="n">
         <v>455.385</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>444</v>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="C126" t="n">
+        <v>444</v>
+      </c>
+      <c r="D126" t="n">
+        <v>444</v>
+      </c>
+      <c r="E126" t="n">
+        <v>444</v>
+      </c>
+      <c r="F126" t="n">
+        <v>819.7386</v>
+      </c>
+      <c r="G126" t="n">
+        <v>455.1116666666666</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>444.3</v>
+      </c>
+      <c r="C127" t="n">
+        <v>446</v>
+      </c>
+      <c r="D127" t="n">
+        <v>446</v>
+      </c>
+      <c r="E127" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>121.4614</v>
+      </c>
+      <c r="G127" t="n">
+        <v>454.9133333333332</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1672.7508</v>
+      </c>
+      <c r="G128" t="n">
+        <v>454.6666666666666</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>443.2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>45.2069</v>
+      </c>
+      <c r="G129" t="n">
+        <v>454.42</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>164.5673</v>
+      </c>
+      <c r="G130" t="n">
+        <v>454.1216666666666</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="E131" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2695.8615</v>
+      </c>
+      <c r="G131" t="n">
+        <v>453.8283333333333</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G132" t="n">
+        <v>453.4766666666666</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="D133" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="E133" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1292.6814</v>
+      </c>
+      <c r="G133" t="n">
+        <v>453.1949999999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>444</v>
-      </c>
-      <c r="C125" t="n">
-        <v>444</v>
-      </c>
-      <c r="D125" t="n">
-        <v>444</v>
-      </c>
-      <c r="E125" t="n">
-        <v>444</v>
-      </c>
-      <c r="F125" t="n">
-        <v>819.7386</v>
-      </c>
-      <c r="G125" t="n">
-        <v>455.1116666666666</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>444</v>
-      </c>
-      <c r="K125" t="n">
-        <v>444</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>444.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>446</v>
-      </c>
-      <c r="D126" t="n">
-        <v>446</v>
-      </c>
-      <c r="E126" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="F126" t="n">
-        <v>121.4614</v>
-      </c>
-      <c r="G126" t="n">
-        <v>454.9133333333332</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>444</v>
-      </c>
-      <c r="K126" t="n">
-        <v>444</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="C127" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="D127" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="E127" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1672.7508</v>
-      </c>
-      <c r="G127" t="n">
-        <v>454.6666666666666</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>444</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="D128" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>443.2</v>
-      </c>
-      <c r="F128" t="n">
-        <v>45.2069</v>
-      </c>
-      <c r="G128" t="n">
-        <v>454.42</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>444</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="C129" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="D129" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="E129" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="F129" t="n">
-        <v>164.5673</v>
-      </c>
-      <c r="G129" t="n">
-        <v>454.1216666666666</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>444</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="C130" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="D130" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="E130" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2695.8615</v>
-      </c>
-      <c r="G130" t="n">
-        <v>453.8283333333333</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>444</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="C131" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="E131" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G131" t="n">
-        <v>453.4766666666666</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>444</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="C132" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="E132" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>1292.6814</v>
-      </c>
-      <c r="G132" t="n">
-        <v>453.1949999999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>444</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="C133" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="E133" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="F133" t="n">
-        <v>500</v>
-      </c>
-      <c r="G133" t="n">
-        <v>452.8683333333332</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K133" t="n">
-        <v>444</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5123,35 +5059,31 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>443.4</v>
+        <v>443.1</v>
       </c>
       <c r="C134" t="n">
-        <v>443.4</v>
+        <v>443.1</v>
       </c>
       <c r="D134" t="n">
-        <v>444.4</v>
+        <v>443.1</v>
       </c>
       <c r="E134" t="n">
-        <v>443.3</v>
+        <v>443.1</v>
       </c>
       <c r="F134" t="n">
-        <v>2981.0852</v>
+        <v>500</v>
       </c>
       <c r="G134" t="n">
-        <v>452.5749999999999</v>
+        <v>452.8683333333332</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K134" t="n">
-        <v>444</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,22 +5098,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>444.4</v>
+        <v>443.4</v>
       </c>
       <c r="C135" t="n">
-        <v>443.5</v>
+        <v>443.4</v>
       </c>
       <c r="D135" t="n">
         <v>444.4</v>
       </c>
       <c r="E135" t="n">
-        <v>443.5</v>
+        <v>443.3</v>
       </c>
       <c r="F135" t="n">
-        <v>273.2157</v>
+        <v>2981.0852</v>
       </c>
       <c r="G135" t="n">
-        <v>452.2233333333332</v>
+        <v>452.5749999999999</v>
       </c>
       <c r="H135" t="n">
         <v>1</v>
@@ -5190,11 +5122,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="K135" t="n">
-        <v>444</v>
-      </c>
+        <v>443.1</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>443.4</v>
+        <v>444.4</v>
       </c>
       <c r="C136" t="n">
-        <v>443.4</v>
+        <v>443.5</v>
       </c>
       <c r="D136" t="n">
-        <v>443.4</v>
+        <v>444.4</v>
       </c>
       <c r="E136" t="n">
-        <v>443.4</v>
+        <v>443.5</v>
       </c>
       <c r="F136" t="n">
-        <v>1.2</v>
+        <v>273.2157</v>
       </c>
       <c r="G136" t="n">
-        <v>451.9616666666666</v>
+        <v>452.2233333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5233,9 +5163,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>444</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,33 +5178,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>444.4</v>
+        <v>443.4</v>
       </c>
       <c r="C137" t="n">
-        <v>444.4</v>
+        <v>443.4</v>
       </c>
       <c r="D137" t="n">
-        <v>444.4</v>
+        <v>443.4</v>
       </c>
       <c r="E137" t="n">
-        <v>444.4</v>
+        <v>443.4</v>
       </c>
       <c r="F137" t="n">
-        <v>479.4294</v>
+        <v>1.2</v>
       </c>
       <c r="G137" t="n">
-        <v>451.7183333333333</v>
+        <v>451.9616666666666</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>444</v>
-      </c>
+      <c r="J137" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,22 +5219,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>447</v>
+        <v>444.4</v>
       </c>
       <c r="C138" t="n">
-        <v>447</v>
+        <v>444.4</v>
       </c>
       <c r="D138" t="n">
-        <v>447</v>
+        <v>444.4</v>
       </c>
       <c r="E138" t="n">
-        <v>447</v>
+        <v>444.4</v>
       </c>
       <c r="F138" t="n">
-        <v>1.2</v>
+        <v>479.4294</v>
       </c>
       <c r="G138" t="n">
-        <v>451.5266666666666</v>
+        <v>451.7183333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5315,9 +5243,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>444</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,33 +5258,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>444.5</v>
+        <v>447</v>
       </c>
       <c r="C139" t="n">
-        <v>444.5</v>
+        <v>447</v>
       </c>
       <c r="D139" t="n">
-        <v>444.5</v>
+        <v>447</v>
       </c>
       <c r="E139" t="n">
-        <v>444.5</v>
+        <v>447</v>
       </c>
       <c r="F139" t="n">
         <v>1.2</v>
       </c>
       <c r="G139" t="n">
-        <v>451.22</v>
+        <v>451.5266666666666</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>444</v>
-      </c>
+      <c r="J139" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,10 +5311,10 @@
         <v>444.5</v>
       </c>
       <c r="F140" t="n">
-        <v>479.4294</v>
+        <v>1.2</v>
       </c>
       <c r="G140" t="n">
-        <v>450.9949999999999</v>
+        <v>451.22</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5397,9 +5323,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>444</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,22 +5338,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="C141" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="D141" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="E141" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="F141" t="n">
-        <v>2013.9213</v>
+        <v>479.4294</v>
       </c>
       <c r="G141" t="n">
-        <v>450.7933333333333</v>
+        <v>450.9949999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5438,9 +5362,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>444</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5467,10 +5389,10 @@
         <v>445.9</v>
       </c>
       <c r="F142" t="n">
-        <v>100</v>
+        <v>2013.9213</v>
       </c>
       <c r="G142" t="n">
-        <v>450.5916666666666</v>
+        <v>450.7933333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5479,9 +5401,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>444</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5496,22 +5416,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>444.5</v>
+        <v>445.9</v>
       </c>
       <c r="C143" t="n">
-        <v>444.5</v>
+        <v>445.9</v>
       </c>
       <c r="D143" t="n">
-        <v>444.5</v>
+        <v>445.9</v>
       </c>
       <c r="E143" t="n">
-        <v>444.5</v>
+        <v>445.9</v>
       </c>
       <c r="F143" t="n">
-        <v>780.3441</v>
+        <v>100</v>
       </c>
       <c r="G143" t="n">
-        <v>450.3733333333333</v>
+        <v>450.5916666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5520,9 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>444</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,22 +5455,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>447</v>
+        <v>444.5</v>
       </c>
       <c r="C144" t="n">
-        <v>447</v>
+        <v>444.5</v>
       </c>
       <c r="D144" t="n">
-        <v>447</v>
+        <v>444.5</v>
       </c>
       <c r="E144" t="n">
-        <v>446.6</v>
+        <v>444.5</v>
       </c>
       <c r="F144" t="n">
-        <v>1880.5132</v>
+        <v>780.3441</v>
       </c>
       <c r="G144" t="n">
-        <v>450.2066666666667</v>
+        <v>450.3733333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5561,9 +5479,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>444</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5581,19 +5497,19 @@
         <v>447</v>
       </c>
       <c r="C145" t="n">
-        <v>444.5</v>
+        <v>447</v>
       </c>
       <c r="D145" t="n">
         <v>447</v>
       </c>
       <c r="E145" t="n">
-        <v>444.5</v>
+        <v>446.6</v>
       </c>
       <c r="F145" t="n">
-        <v>6642.4998</v>
+        <v>1880.5132</v>
       </c>
       <c r="G145" t="n">
-        <v>449.9983333333333</v>
+        <v>450.2066666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5602,9 +5518,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>444</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,22 +5533,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C146" t="n">
-        <v>452</v>
+        <v>444.5</v>
       </c>
       <c r="D146" t="n">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E146" t="n">
-        <v>452</v>
+        <v>444.5</v>
       </c>
       <c r="F146" t="n">
-        <v>1.12</v>
+        <v>6642.4998</v>
       </c>
       <c r="G146" t="n">
-        <v>449.79</v>
+        <v>449.9983333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5643,9 +5557,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>444</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5660,22 +5572,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>452.8</v>
+        <v>452</v>
       </c>
       <c r="C147" t="n">
-        <v>452.8</v>
+        <v>452</v>
       </c>
       <c r="D147" t="n">
-        <v>452.8</v>
+        <v>452</v>
       </c>
       <c r="E147" t="n">
-        <v>452.8</v>
+        <v>452</v>
       </c>
       <c r="F147" t="n">
-        <v>237.4</v>
+        <v>1.12</v>
       </c>
       <c r="G147" t="n">
-        <v>449.7366666666667</v>
+        <v>449.79</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5684,9 +5596,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>444</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,10 +5623,10 @@
         <v>452.8</v>
       </c>
       <c r="F148" t="n">
-        <v>2115.729</v>
+        <v>237.4</v>
       </c>
       <c r="G148" t="n">
-        <v>449.5583333333333</v>
+        <v>449.7366666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5725,9 +5635,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>444</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5742,22 +5650,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>453</v>
+        <v>452.8</v>
       </c>
       <c r="C149" t="n">
-        <v>455.3</v>
+        <v>452.8</v>
       </c>
       <c r="D149" t="n">
-        <v>455.3</v>
+        <v>452.8</v>
       </c>
       <c r="E149" t="n">
-        <v>453</v>
+        <v>452.8</v>
       </c>
       <c r="F149" t="n">
-        <v>1748.6272</v>
+        <v>2115.729</v>
       </c>
       <c r="G149" t="n">
-        <v>449.48</v>
+        <v>449.5583333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5766,9 +5674,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>444</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,7 +5689,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>455.2</v>
+        <v>453</v>
       </c>
       <c r="C150" t="n">
         <v>455.3</v>
@@ -5792,13 +5698,13 @@
         <v>455.3</v>
       </c>
       <c r="E150" t="n">
-        <v>455.2</v>
+        <v>453</v>
       </c>
       <c r="F150" t="n">
-        <v>1316.8106</v>
+        <v>1748.6272</v>
       </c>
       <c r="G150" t="n">
-        <v>449.3266666666667</v>
+        <v>449.48</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5807,9 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>444</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,7 +5728,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>455.3</v>
+        <v>455.2</v>
       </c>
       <c r="C151" t="n">
         <v>455.3</v>
@@ -5833,13 +5737,13 @@
         <v>455.3</v>
       </c>
       <c r="E151" t="n">
-        <v>455.3</v>
+        <v>455.2</v>
       </c>
       <c r="F151" t="n">
-        <v>1976.2857</v>
+        <v>1316.8106</v>
       </c>
       <c r="G151" t="n">
-        <v>449.1733333333333</v>
+        <v>449.3266666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5848,9 +5752,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>444</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5877,10 +5779,10 @@
         <v>455.3</v>
       </c>
       <c r="F152" t="n">
-        <v>1079.0307</v>
+        <v>1976.2857</v>
       </c>
       <c r="G152" t="n">
-        <v>449.095</v>
+        <v>449.1733333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5889,9 +5791,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>444</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,22 +5806,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>460.5</v>
+        <v>455.3</v>
       </c>
       <c r="C153" t="n">
-        <v>460.5</v>
+        <v>455.3</v>
       </c>
       <c r="D153" t="n">
-        <v>460.5</v>
+        <v>455.3</v>
       </c>
       <c r="E153" t="n">
-        <v>460.5</v>
+        <v>455.3</v>
       </c>
       <c r="F153" t="n">
-        <v>2.6711</v>
+        <v>1079.0307</v>
       </c>
       <c r="G153" t="n">
-        <v>449.1199999999999</v>
+        <v>449.095</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5930,9 +5830,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>444</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,22 +5845,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>457.7</v>
+        <v>460.5</v>
       </c>
       <c r="C154" t="n">
-        <v>455.4</v>
+        <v>460.5</v>
       </c>
       <c r="D154" t="n">
-        <v>457.7</v>
+        <v>460.5</v>
       </c>
       <c r="E154" t="n">
-        <v>455.4</v>
+        <v>460.5</v>
       </c>
       <c r="F154" t="n">
-        <v>19.7102</v>
+        <v>2.6711</v>
       </c>
       <c r="G154" t="n">
-        <v>449.115</v>
+        <v>449.1199999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5971,9 +5869,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>444</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,22 +5884,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>456</v>
+        <v>457.7</v>
       </c>
       <c r="C155" t="n">
-        <v>455</v>
+        <v>455.4</v>
       </c>
       <c r="D155" t="n">
-        <v>456</v>
+        <v>457.7</v>
       </c>
       <c r="E155" t="n">
-        <v>455</v>
+        <v>455.4</v>
       </c>
       <c r="F155" t="n">
-        <v>3213.6047</v>
+        <v>19.7102</v>
       </c>
       <c r="G155" t="n">
-        <v>449.18</v>
+        <v>449.115</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6012,9 +5908,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>444</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,22 +5923,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C156" t="n">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D156" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="E156" t="n">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="F156" t="n">
-        <v>1.2</v>
+        <v>3213.6047</v>
       </c>
       <c r="G156" t="n">
-        <v>449.145</v>
+        <v>449.18</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6053,9 +5947,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>444</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6082,10 +5974,10 @@
         <v>449</v>
       </c>
       <c r="F157" t="n">
-        <v>246.282</v>
+        <v>1.2</v>
       </c>
       <c r="G157" t="n">
-        <v>448.9666666666666</v>
+        <v>449.145</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6094,9 +5986,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>444</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6111,22 +6001,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>446.8</v>
+        <v>449</v>
       </c>
       <c r="C158" t="n">
-        <v>446.8</v>
+        <v>449</v>
       </c>
       <c r="D158" t="n">
-        <v>446.8</v>
+        <v>449</v>
       </c>
       <c r="E158" t="n">
-        <v>446.8</v>
+        <v>449</v>
       </c>
       <c r="F158" t="n">
-        <v>1.2</v>
+        <v>246.282</v>
       </c>
       <c r="G158" t="n">
-        <v>448.7516666666667</v>
+        <v>448.9666666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6135,9 +6025,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>444</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,22 +6040,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>446.9</v>
+        <v>446.8</v>
       </c>
       <c r="C159" t="n">
-        <v>446.9</v>
+        <v>446.8</v>
       </c>
       <c r="D159" t="n">
-        <v>446.9</v>
+        <v>446.8</v>
       </c>
       <c r="E159" t="n">
-        <v>446.9</v>
+        <v>446.8</v>
       </c>
       <c r="F159" t="n">
-        <v>1284.326</v>
+        <v>1.2</v>
       </c>
       <c r="G159" t="n">
-        <v>448.5666666666667</v>
+        <v>448.7516666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6176,9 +6064,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>444</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,10 +6091,10 @@
         <v>446.9</v>
       </c>
       <c r="F160" t="n">
-        <v>215.674</v>
+        <v>1284.326</v>
       </c>
       <c r="G160" t="n">
-        <v>448.3533333333334</v>
+        <v>448.5666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6217,9 +6103,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>444</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,22 +6118,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>452.9</v>
+        <v>446.9</v>
       </c>
       <c r="C161" t="n">
-        <v>452.9</v>
+        <v>446.9</v>
       </c>
       <c r="D161" t="n">
-        <v>452.9</v>
+        <v>446.9</v>
       </c>
       <c r="E161" t="n">
-        <v>452.9</v>
+        <v>446.9</v>
       </c>
       <c r="F161" t="n">
-        <v>1.2</v>
+        <v>215.674</v>
       </c>
       <c r="G161" t="n">
-        <v>448.24</v>
+        <v>448.3533333333334</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6258,9 +6142,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>444</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6275,22 +6157,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>448</v>
+        <v>452.9</v>
       </c>
       <c r="C162" t="n">
-        <v>448.9</v>
+        <v>452.9</v>
       </c>
       <c r="D162" t="n">
-        <v>448.9</v>
+        <v>452.9</v>
       </c>
       <c r="E162" t="n">
-        <v>448</v>
+        <v>452.9</v>
       </c>
       <c r="F162" t="n">
-        <v>271.0618</v>
+        <v>1.2</v>
       </c>
       <c r="G162" t="n">
-        <v>448.1216666666667</v>
+        <v>448.24</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6299,9 +6181,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>444</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,22 +6196,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C163" t="n">
-        <v>450</v>
+        <v>448.9</v>
       </c>
       <c r="D163" t="n">
-        <v>450</v>
+        <v>448.9</v>
       </c>
       <c r="E163" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F163" t="n">
-        <v>229</v>
+        <v>271.0618</v>
       </c>
       <c r="G163" t="n">
-        <v>448.035</v>
+        <v>448.1216666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6340,9 +6220,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>444</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6369,10 +6247,10 @@
         <v>450</v>
       </c>
       <c r="F164" t="n">
-        <v>1387.2836</v>
+        <v>229</v>
       </c>
       <c r="G164" t="n">
-        <v>447.9350000000001</v>
+        <v>448.035</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6381,9 +6259,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>444</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6398,22 +6274,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>451.7</v>
+        <v>450</v>
       </c>
       <c r="C165" t="n">
-        <v>451.7</v>
+        <v>450</v>
       </c>
       <c r="D165" t="n">
-        <v>451.7</v>
+        <v>450</v>
       </c>
       <c r="E165" t="n">
-        <v>451.7</v>
+        <v>450</v>
       </c>
       <c r="F165" t="n">
-        <v>243.8496</v>
+        <v>1387.2836</v>
       </c>
       <c r="G165" t="n">
-        <v>447.8783333333334</v>
+        <v>447.9350000000001</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6422,9 +6298,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>444</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6451,10 +6325,10 @@
         <v>451.7</v>
       </c>
       <c r="F166" t="n">
-        <v>243.8518</v>
+        <v>243.8496</v>
       </c>
       <c r="G166" t="n">
-        <v>447.8683333333335</v>
+        <v>447.8783333333334</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6463,9 +6337,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>444</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6480,22 +6352,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>451</v>
+        <v>451.7</v>
       </c>
       <c r="C167" t="n">
-        <v>451</v>
+        <v>451.7</v>
       </c>
       <c r="D167" t="n">
-        <v>451</v>
+        <v>451.7</v>
       </c>
       <c r="E167" t="n">
-        <v>451</v>
+        <v>451.7</v>
       </c>
       <c r="F167" t="n">
-        <v>238.6</v>
+        <v>243.8518</v>
       </c>
       <c r="G167" t="n">
-        <v>447.8650000000001</v>
+        <v>447.8683333333335</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6504,9 +6376,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>444</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6521,22 +6391,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>450.9</v>
+        <v>451</v>
       </c>
       <c r="C168" t="n">
-        <v>450.9</v>
+        <v>451</v>
       </c>
       <c r="D168" t="n">
-        <v>450.9</v>
+        <v>451</v>
       </c>
       <c r="E168" t="n">
-        <v>450.9</v>
+        <v>451</v>
       </c>
       <c r="F168" t="n">
-        <v>669.9619</v>
+        <v>238.6</v>
       </c>
       <c r="G168" t="n">
-        <v>447.8600000000001</v>
+        <v>447.8650000000001</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6545,9 +6415,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>444</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,22 +6430,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>450.8</v>
+        <v>450.9</v>
       </c>
       <c r="C169" t="n">
-        <v>450.8</v>
+        <v>450.9</v>
       </c>
       <c r="D169" t="n">
-        <v>450.8</v>
+        <v>450.9</v>
       </c>
       <c r="E169" t="n">
-        <v>450.8</v>
+        <v>450.9</v>
       </c>
       <c r="F169" t="n">
-        <v>623.537</v>
+        <v>669.9619</v>
       </c>
       <c r="G169" t="n">
-        <v>447.8533333333334</v>
+        <v>447.8600000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6586,9 +6454,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>444</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6603,22 +6469,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>451</v>
+        <v>450.8</v>
       </c>
       <c r="C170" t="n">
-        <v>451</v>
+        <v>450.8</v>
       </c>
       <c r="D170" t="n">
-        <v>451</v>
+        <v>450.8</v>
       </c>
       <c r="E170" t="n">
-        <v>451</v>
+        <v>450.8</v>
       </c>
       <c r="F170" t="n">
-        <v>10909.0237</v>
+        <v>623.537</v>
       </c>
       <c r="G170" t="n">
-        <v>447.8500000000001</v>
+        <v>447.8533333333334</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6627,9 +6493,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>444</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6656,10 +6520,10 @@
         <v>451</v>
       </c>
       <c r="F171" t="n">
-        <v>10897.653</v>
+        <v>10909.0237</v>
       </c>
       <c r="G171" t="n">
-        <v>447.8466666666667</v>
+        <v>447.8500000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6668,9 +6532,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>444</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6685,19 +6547,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C172" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D172" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E172" t="n">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="F172" t="n">
-        <v>1000</v>
+        <v>10897.653</v>
       </c>
       <c r="G172" t="n">
         <v>447.8466666666667</v>
@@ -6709,9 +6571,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>444</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6726,22 +6586,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C173" t="n">
-        <v>450.7</v>
+        <v>446</v>
       </c>
       <c r="D173" t="n">
-        <v>450.7</v>
+        <v>450</v>
       </c>
       <c r="E173" t="n">
-        <v>447.1</v>
+        <v>446</v>
       </c>
       <c r="F173" t="n">
-        <v>458.209</v>
+        <v>1000</v>
       </c>
       <c r="G173" t="n">
-        <v>447.9250000000001</v>
+        <v>447.8466666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6750,9 +6610,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>444</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6767,22 +6625,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C174" t="n">
-        <v>451.7</v>
+        <v>450.7</v>
       </c>
       <c r="D174" t="n">
-        <v>451.7</v>
+        <v>450.7</v>
       </c>
       <c r="E174" t="n">
-        <v>451</v>
+        <v>447.1</v>
       </c>
       <c r="F174" t="n">
-        <v>830.9244</v>
+        <v>458.209</v>
       </c>
       <c r="G174" t="n">
-        <v>448.0200000000001</v>
+        <v>447.9250000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6791,9 +6649,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>444</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,7 +6664,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>451.7</v>
+        <v>451</v>
       </c>
       <c r="C175" t="n">
         <v>451.7</v>
@@ -6817,13 +6673,13 @@
         <v>451.7</v>
       </c>
       <c r="E175" t="n">
-        <v>451.7</v>
+        <v>451</v>
       </c>
       <c r="F175" t="n">
-        <v>169.0756</v>
+        <v>830.9244</v>
       </c>
       <c r="G175" t="n">
-        <v>448.0983333333334</v>
+        <v>448.0200000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6832,9 +6688,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>444</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6861,10 +6715,10 @@
         <v>451.7</v>
       </c>
       <c r="F176" t="n">
-        <v>6653.3257</v>
+        <v>169.0756</v>
       </c>
       <c r="G176" t="n">
-        <v>448.1766666666668</v>
+        <v>448.0983333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6873,9 +6727,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>444</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,22 +6742,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>450.7</v>
+        <v>451.7</v>
       </c>
       <c r="C177" t="n">
-        <v>447.1</v>
+        <v>451.7</v>
       </c>
       <c r="D177" t="n">
-        <v>450.7</v>
+        <v>451.7</v>
       </c>
       <c r="E177" t="n">
-        <v>447.1</v>
+        <v>451.7</v>
       </c>
       <c r="F177" t="n">
-        <v>467.7087</v>
+        <v>6653.3257</v>
       </c>
       <c r="G177" t="n">
-        <v>448.2083333333334</v>
+        <v>448.1766666666668</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6914,9 +6766,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>444</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6931,22 +6781,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>456</v>
+        <v>450.7</v>
       </c>
       <c r="C178" t="n">
-        <v>456</v>
+        <v>447.1</v>
       </c>
       <c r="D178" t="n">
-        <v>456</v>
+        <v>450.7</v>
       </c>
       <c r="E178" t="n">
-        <v>456</v>
+        <v>447.1</v>
       </c>
       <c r="F178" t="n">
-        <v>1.1</v>
+        <v>467.7087</v>
       </c>
       <c r="G178" t="n">
-        <v>448.3883333333334</v>
+        <v>448.2083333333334</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6955,9 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>444</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6984,10 +6832,10 @@
         <v>456</v>
       </c>
       <c r="F179" t="n">
-        <v>500</v>
+        <v>1.1</v>
       </c>
       <c r="G179" t="n">
-        <v>448.5683333333334</v>
+        <v>448.3883333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6996,9 +6844,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>444</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7013,7 +6859,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C180" t="n">
         <v>456</v>
@@ -7022,13 +6868,13 @@
         <v>456</v>
       </c>
       <c r="E180" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F180" t="n">
         <v>500</v>
       </c>
       <c r="G180" t="n">
-        <v>448.7483333333333</v>
+        <v>448.5683333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7037,9 +6883,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>444</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7054,22 +6898,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>455</v>
+      </c>
+      <c r="C181" t="n">
         <v>456</v>
-      </c>
-      <c r="C181" t="n">
-        <v>451.2</v>
       </c>
       <c r="D181" t="n">
         <v>456</v>
       </c>
       <c r="E181" t="n">
-        <v>451.2</v>
+        <v>455</v>
       </c>
       <c r="F181" t="n">
-        <v>1160.2576</v>
+        <v>500</v>
       </c>
       <c r="G181" t="n">
-        <v>448.8500000000001</v>
+        <v>448.7483333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7078,9 +6922,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>444</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,22 +6937,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C182" t="n">
-        <v>457</v>
+        <v>451.2</v>
       </c>
       <c r="D182" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E182" t="n">
-        <v>455</v>
+        <v>451.2</v>
       </c>
       <c r="F182" t="n">
-        <v>7010.0466</v>
+        <v>1160.2576</v>
       </c>
       <c r="G182" t="n">
-        <v>449.0666666666667</v>
+        <v>448.8500000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7119,9 +6961,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>444</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,22 +6976,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>457.6</v>
+        <v>455</v>
       </c>
       <c r="C183" t="n">
-        <v>457.6</v>
+        <v>457</v>
       </c>
       <c r="D183" t="n">
-        <v>457.6</v>
+        <v>457</v>
       </c>
       <c r="E183" t="n">
-        <v>457.6</v>
+        <v>455</v>
       </c>
       <c r="F183" t="n">
-        <v>22.5001</v>
+        <v>7010.0466</v>
       </c>
       <c r="G183" t="n">
-        <v>449.2766666666667</v>
+        <v>449.0666666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7160,9 +7000,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>444</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7177,22 +7015,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>460.5</v>
+        <v>457.6</v>
       </c>
       <c r="C184" t="n">
-        <v>473</v>
+        <v>457.6</v>
       </c>
       <c r="D184" t="n">
-        <v>473</v>
+        <v>457.6</v>
       </c>
       <c r="E184" t="n">
-        <v>460.5</v>
+        <v>457.6</v>
       </c>
       <c r="F184" t="n">
-        <v>6716.1963</v>
+        <v>22.5001</v>
       </c>
       <c r="G184" t="n">
-        <v>449.76</v>
+        <v>449.2766666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7201,9 +7039,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>444</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7218,22 +7054,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>474.8</v>
+        <v>460.5</v>
       </c>
       <c r="C185" t="n">
-        <v>474.8</v>
+        <v>473</v>
       </c>
       <c r="D185" t="n">
-        <v>474.8</v>
+        <v>473</v>
       </c>
       <c r="E185" t="n">
-        <v>473</v>
+        <v>460.5</v>
       </c>
       <c r="F185" t="n">
-        <v>1739.0994</v>
+        <v>6716.1963</v>
       </c>
       <c r="G185" t="n">
-        <v>450.2733333333334</v>
+        <v>449.76</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7242,9 +7078,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>444</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7262,19 +7096,19 @@
         <v>474.8</v>
       </c>
       <c r="C186" t="n">
-        <v>475</v>
+        <v>474.8</v>
       </c>
       <c r="D186" t="n">
-        <v>475</v>
+        <v>474.8</v>
       </c>
       <c r="E186" t="n">
-        <v>474.8</v>
+        <v>473</v>
       </c>
       <c r="F186" t="n">
-        <v>4862.0949</v>
+        <v>1739.0994</v>
       </c>
       <c r="G186" t="n">
-        <v>450.7566666666667</v>
+        <v>450.2733333333334</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7283,9 +7117,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>444</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,22 +7132,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>474.8</v>
+      </c>
+      <c r="C187" t="n">
         <v>475</v>
       </c>
-      <c r="C187" t="n">
-        <v>478</v>
-      </c>
       <c r="D187" t="n">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E187" t="n">
-        <v>475</v>
+        <v>474.8</v>
       </c>
       <c r="F187" t="n">
-        <v>6345.0438</v>
+        <v>4862.0949</v>
       </c>
       <c r="G187" t="n">
-        <v>451.3366666666667</v>
+        <v>450.7566666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7324,39 +7156,35 @@
         <v>1</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>444</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1.071576576576577</v>
-      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C188" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D188" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E188" t="n">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F188" t="n">
-        <v>2.7422</v>
+        <v>6345.0438</v>
       </c>
       <c r="G188" t="n">
-        <v>451.9</v>
+        <v>451.3366666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7376,28 +7204,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>476.9</v>
+        <v>477</v>
       </c>
       <c r="C189" t="n">
-        <v>476.9</v>
+        <v>477</v>
       </c>
       <c r="D189" t="n">
-        <v>476.9</v>
+        <v>477</v>
       </c>
       <c r="E189" t="n">
-        <v>476.9</v>
+        <v>477</v>
       </c>
       <c r="F189" t="n">
-        <v>5</v>
+        <v>2.7422</v>
       </c>
       <c r="G189" t="n">
-        <v>452.4633333333334</v>
+        <v>451.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -7411,22 +7239,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>469.3</v>
+        <v>476.9</v>
       </c>
       <c r="C190" t="n">
-        <v>457.6</v>
+        <v>476.9</v>
       </c>
       <c r="D190" t="n">
-        <v>469.3</v>
+        <v>476.9</v>
       </c>
       <c r="E190" t="n">
-        <v>457.6</v>
+        <v>476.9</v>
       </c>
       <c r="F190" t="n">
-        <v>7745.0476</v>
+        <v>5</v>
       </c>
       <c r="G190" t="n">
-        <v>452.6833333333333</v>
+        <v>452.4633333333334</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7446,22 +7274,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>457.6</v>
+        <v>469.3</v>
       </c>
       <c r="C191" t="n">
         <v>457.6</v>
       </c>
       <c r="D191" t="n">
-        <v>457.6</v>
+        <v>469.3</v>
       </c>
       <c r="E191" t="n">
         <v>457.6</v>
       </c>
       <c r="F191" t="n">
-        <v>619.1224999999999</v>
+        <v>7745.0476</v>
       </c>
       <c r="G191" t="n">
-        <v>452.925</v>
+        <v>452.6833333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7481,22 +7309,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>462.9</v>
+        <v>457.6</v>
       </c>
       <c r="C192" t="n">
-        <v>463.9</v>
+        <v>457.6</v>
       </c>
       <c r="D192" t="n">
-        <v>463.9</v>
+        <v>457.6</v>
       </c>
       <c r="E192" t="n">
-        <v>462.9</v>
+        <v>457.6</v>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>619.1224999999999</v>
       </c>
       <c r="G192" t="n">
-        <v>453.2716666666667</v>
+        <v>452.925</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7516,22 +7344,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>460.9</v>
+        <v>462.9</v>
       </c>
       <c r="C193" t="n">
-        <v>461</v>
+        <v>463.9</v>
       </c>
       <c r="D193" t="n">
-        <v>461</v>
+        <v>463.9</v>
       </c>
       <c r="E193" t="n">
-        <v>460.9</v>
+        <v>462.9</v>
       </c>
       <c r="F193" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G193" t="n">
-        <v>453.5700000000001</v>
+        <v>453.2716666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7551,22 +7379,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>463.4</v>
+        <v>460.9</v>
       </c>
       <c r="C194" t="n">
-        <v>463.4</v>
+        <v>461</v>
       </c>
       <c r="D194" t="n">
-        <v>463.4</v>
+        <v>461</v>
       </c>
       <c r="E194" t="n">
-        <v>463.4</v>
+        <v>460.9</v>
       </c>
       <c r="F194" t="n">
-        <v>105.2</v>
+        <v>1000</v>
       </c>
       <c r="G194" t="n">
-        <v>453.9033333333334</v>
+        <v>453.5700000000001</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7598,10 +7426,10 @@
         <v>463.4</v>
       </c>
       <c r="F195" t="n">
-        <v>1129.8252</v>
+        <v>105.2</v>
       </c>
       <c r="G195" t="n">
-        <v>454.2350000000001</v>
+        <v>453.9033333333334</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7624,19 +7452,19 @@
         <v>463.4</v>
       </c>
       <c r="C196" t="n">
-        <v>455.1</v>
+        <v>463.4</v>
       </c>
       <c r="D196" t="n">
         <v>463.4</v>
       </c>
       <c r="E196" t="n">
-        <v>455.1</v>
+        <v>463.4</v>
       </c>
       <c r="F196" t="n">
-        <v>3505.0233</v>
+        <v>1129.8252</v>
       </c>
       <c r="G196" t="n">
-        <v>454.4300000000001</v>
+        <v>454.2350000000001</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7656,22 +7484,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>463.3</v>
+        <v>463.4</v>
       </c>
       <c r="C197" t="n">
-        <v>463.3</v>
+        <v>455.1</v>
       </c>
       <c r="D197" t="n">
-        <v>463.3</v>
+        <v>463.4</v>
       </c>
       <c r="E197" t="n">
-        <v>463.3</v>
+        <v>455.1</v>
       </c>
       <c r="F197" t="n">
-        <v>1.5</v>
+        <v>3505.0233</v>
       </c>
       <c r="G197" t="n">
-        <v>454.745</v>
+        <v>454.4300000000001</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7691,22 +7519,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>455.2</v>
+        <v>463.3</v>
       </c>
       <c r="C198" t="n">
-        <v>455.2</v>
+        <v>463.3</v>
       </c>
       <c r="D198" t="n">
-        <v>455.2</v>
+        <v>463.3</v>
       </c>
       <c r="E198" t="n">
-        <v>455.2</v>
+        <v>463.3</v>
       </c>
       <c r="F198" t="n">
-        <v>107.6047</v>
+        <v>1.5</v>
       </c>
       <c r="G198" t="n">
-        <v>454.8816666666667</v>
+        <v>454.745</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7726,22 +7554,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>460.7</v>
+        <v>455.2</v>
       </c>
       <c r="C199" t="n">
-        <v>460.7</v>
+        <v>455.2</v>
       </c>
       <c r="D199" t="n">
-        <v>460.7</v>
+        <v>455.2</v>
       </c>
       <c r="E199" t="n">
-        <v>460.7</v>
+        <v>455.2</v>
       </c>
       <c r="F199" t="n">
-        <v>1.5</v>
+        <v>107.6047</v>
       </c>
       <c r="G199" t="n">
-        <v>455.1516666666667</v>
+        <v>454.8816666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7761,22 +7589,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>459.9</v>
+        <v>460.7</v>
       </c>
       <c r="C200" t="n">
-        <v>461.9</v>
+        <v>460.7</v>
       </c>
       <c r="D200" t="n">
-        <v>461.9</v>
+        <v>460.7</v>
       </c>
       <c r="E200" t="n">
-        <v>459.9</v>
+        <v>460.7</v>
       </c>
       <c r="F200" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="G200" t="n">
-        <v>455.4416666666667</v>
+        <v>455.1516666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7796,22 +7624,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>455.2</v>
+        <v>459.9</v>
       </c>
       <c r="C201" t="n">
-        <v>455.2</v>
+        <v>461.9</v>
       </c>
       <c r="D201" t="n">
-        <v>455.2</v>
+        <v>461.9</v>
       </c>
       <c r="E201" t="n">
-        <v>455.2</v>
+        <v>459.9</v>
       </c>
       <c r="F201" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="G201" t="n">
-        <v>455.5966666666667</v>
+        <v>455.4416666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7834,19 +7662,19 @@
         <v>455.2</v>
       </c>
       <c r="C202" t="n">
-        <v>460.7</v>
+        <v>455.2</v>
       </c>
       <c r="D202" t="n">
-        <v>460.7</v>
+        <v>455.2</v>
       </c>
       <c r="E202" t="n">
         <v>455.2</v>
       </c>
       <c r="F202" t="n">
-        <v>7.74</v>
+        <v>2</v>
       </c>
       <c r="G202" t="n">
-        <v>455.8433333333334</v>
+        <v>455.5966666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7869,19 +7697,19 @@
         <v>455.2</v>
       </c>
       <c r="C203" t="n">
-        <v>455.1</v>
+        <v>460.7</v>
       </c>
       <c r="D203" t="n">
+        <v>460.7</v>
+      </c>
+      <c r="E203" t="n">
         <v>455.2</v>
       </c>
-      <c r="E203" t="n">
-        <v>455.1</v>
-      </c>
       <c r="F203" t="n">
-        <v>1240.8129</v>
+        <v>7.74</v>
       </c>
       <c r="G203" t="n">
-        <v>456.02</v>
+        <v>455.8433333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7901,22 +7729,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>458.7</v>
+        <v>455.2</v>
       </c>
       <c r="C204" t="n">
-        <v>458.7</v>
+        <v>455.1</v>
       </c>
       <c r="D204" t="n">
-        <v>458.7</v>
+        <v>455.2</v>
       </c>
       <c r="E204" t="n">
-        <v>458.7</v>
+        <v>455.1</v>
       </c>
       <c r="F204" t="n">
-        <v>500</v>
+        <v>1240.8129</v>
       </c>
       <c r="G204" t="n">
-        <v>456.215</v>
+        <v>456.02</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7936,22 +7764,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>460.5</v>
+        <v>458.7</v>
       </c>
       <c r="C205" t="n">
-        <v>460.5</v>
+        <v>458.7</v>
       </c>
       <c r="D205" t="n">
-        <v>460.5</v>
+        <v>458.7</v>
       </c>
       <c r="E205" t="n">
-        <v>460.5</v>
+        <v>458.7</v>
       </c>
       <c r="F205" t="n">
-        <v>1.1</v>
+        <v>500</v>
       </c>
       <c r="G205" t="n">
-        <v>456.4816666666667</v>
+        <v>456.215</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7971,31 +7799,35 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>458.8</v>
+        <v>460.5</v>
       </c>
       <c r="C206" t="n">
-        <v>460</v>
+        <v>460.5</v>
       </c>
       <c r="D206" t="n">
-        <v>460</v>
+        <v>460.5</v>
       </c>
       <c r="E206" t="n">
-        <v>458.8</v>
+        <v>460.5</v>
       </c>
       <c r="F206" t="n">
-        <v>538</v>
+        <v>1.1</v>
       </c>
       <c r="G206" t="n">
-        <v>456.615</v>
+        <v>456.4816666666667</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>458.7</v>
+      </c>
+      <c r="K206" t="n">
+        <v>458.7</v>
+      </c>
       <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
@@ -8006,22 +7838,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>461.8</v>
+        <v>458.8</v>
       </c>
       <c r="C207" t="n">
-        <v>461.8</v>
+        <v>460</v>
       </c>
       <c r="D207" t="n">
-        <v>461.8</v>
+        <v>460</v>
       </c>
       <c r="E207" t="n">
-        <v>461.8</v>
+        <v>458.8</v>
       </c>
       <c r="F207" t="n">
-        <v>1.2</v>
+        <v>538</v>
       </c>
       <c r="G207" t="n">
-        <v>456.765</v>
+        <v>456.615</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8030,8 +7862,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>458.7</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8044,19 +7882,19 @@
         <v>461.8</v>
       </c>
       <c r="C208" t="n">
-        <v>463.4</v>
+        <v>461.8</v>
       </c>
       <c r="D208" t="n">
-        <v>463.4</v>
+        <v>461.8</v>
       </c>
       <c r="E208" t="n">
         <v>461.8</v>
       </c>
       <c r="F208" t="n">
-        <v>276.7447</v>
+        <v>1.2</v>
       </c>
       <c r="G208" t="n">
-        <v>456.9416666666667</v>
+        <v>456.765</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8065,8 +7903,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>458.7</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8076,22 +7920,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>462.8</v>
+        <v>461.8</v>
       </c>
       <c r="C209" t="n">
-        <v>462.8</v>
+        <v>463.4</v>
       </c>
       <c r="D209" t="n">
-        <v>462.8</v>
+        <v>463.4</v>
       </c>
       <c r="E209" t="n">
-        <v>462.8</v>
+        <v>461.8</v>
       </c>
       <c r="F209" t="n">
-        <v>8.2553</v>
+        <v>276.7447</v>
       </c>
       <c r="G209" t="n">
-        <v>457.0666666666667</v>
+        <v>456.9416666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8111,22 +7955,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>463.4</v>
+        <v>462.8</v>
       </c>
       <c r="C210" t="n">
-        <v>463.4</v>
+        <v>462.8</v>
       </c>
       <c r="D210" t="n">
-        <v>463.4</v>
+        <v>462.8</v>
       </c>
       <c r="E210" t="n">
-        <v>463.4</v>
+        <v>462.8</v>
       </c>
       <c r="F210" t="n">
-        <v>8.2035</v>
+        <v>8.2553</v>
       </c>
       <c r="G210" t="n">
-        <v>457.2016666666668</v>
+        <v>457.0666666666667</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8146,7 +7990,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>461</v>
+        <v>463.4</v>
       </c>
       <c r="C211" t="n">
         <v>463.4</v>
@@ -8155,13 +7999,13 @@
         <v>463.4</v>
       </c>
       <c r="E211" t="n">
-        <v>461</v>
+        <v>463.4</v>
       </c>
       <c r="F211" t="n">
-        <v>344.2457</v>
+        <v>8.2035</v>
       </c>
       <c r="G211" t="n">
-        <v>457.3366666666668</v>
+        <v>457.2016666666668</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8181,22 +8025,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>461</v>
+      </c>
+      <c r="C212" t="n">
         <v>463.4</v>
       </c>
-      <c r="C212" t="n">
-        <v>464.4</v>
-      </c>
       <c r="D212" t="n">
-        <v>464.4</v>
+        <v>463.4</v>
       </c>
       <c r="E212" t="n">
-        <v>463.4</v>
+        <v>461</v>
       </c>
       <c r="F212" t="n">
-        <v>89.7636</v>
+        <v>344.2457</v>
       </c>
       <c r="G212" t="n">
-        <v>457.4883333333335</v>
+        <v>457.3366666666668</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8216,22 +8060,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>466.6</v>
+        <v>463.4</v>
       </c>
       <c r="C213" t="n">
-        <v>468.5</v>
+        <v>464.4</v>
       </c>
       <c r="D213" t="n">
-        <v>468.5</v>
+        <v>464.4</v>
       </c>
       <c r="E213" t="n">
-        <v>464.4</v>
+        <v>463.4</v>
       </c>
       <c r="F213" t="n">
-        <v>14108.2483</v>
+        <v>89.7636</v>
       </c>
       <c r="G213" t="n">
-        <v>457.6216666666668</v>
+        <v>457.4883333333335</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8251,22 +8095,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>467.4</v>
+        <v>466.6</v>
       </c>
       <c r="C214" t="n">
-        <v>467.4</v>
+        <v>468.5</v>
       </c>
       <c r="D214" t="n">
-        <v>467.4</v>
+        <v>468.5</v>
       </c>
       <c r="E214" t="n">
-        <v>467.4</v>
+        <v>464.4</v>
       </c>
       <c r="F214" t="n">
-        <v>7.6734</v>
+        <v>14108.2483</v>
       </c>
       <c r="G214" t="n">
-        <v>457.8216666666668</v>
+        <v>457.6216666666668</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8298,10 +8142,10 @@
         <v>467.4</v>
       </c>
       <c r="F215" t="n">
-        <v>333.9991</v>
+        <v>7.6734</v>
       </c>
       <c r="G215" t="n">
-        <v>458.0283333333335</v>
+        <v>457.8216666666668</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8333,10 +8177,10 @@
         <v>467.4</v>
       </c>
       <c r="F216" t="n">
-        <v>24.249</v>
+        <v>333.9991</v>
       </c>
       <c r="G216" t="n">
-        <v>458.3350000000002</v>
+        <v>458.0283333333335</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8356,22 +8200,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>467.5</v>
+        <v>467.4</v>
       </c>
       <c r="C217" t="n">
-        <v>467.5</v>
+        <v>467.4</v>
       </c>
       <c r="D217" t="n">
-        <v>467.5</v>
+        <v>467.4</v>
       </c>
       <c r="E217" t="n">
-        <v>467.5</v>
+        <v>467.4</v>
       </c>
       <c r="F217" t="n">
-        <v>2</v>
+        <v>24.249</v>
       </c>
       <c r="G217" t="n">
-        <v>458.6433333333335</v>
+        <v>458.3350000000002</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8391,22 +8235,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>467.7</v>
+        <v>467.5</v>
       </c>
       <c r="C218" t="n">
-        <v>467.7</v>
+        <v>467.5</v>
       </c>
       <c r="D218" t="n">
-        <v>467.7</v>
+        <v>467.5</v>
       </c>
       <c r="E218" t="n">
-        <v>467.7</v>
+        <v>467.5</v>
       </c>
       <c r="F218" t="n">
-        <v>130.4511438956596</v>
+        <v>2</v>
       </c>
       <c r="G218" t="n">
-        <v>458.9916666666669</v>
+        <v>458.6433333333335</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8426,22 +8270,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>462.4</v>
+        <v>467.7</v>
       </c>
       <c r="C219" t="n">
-        <v>464.7</v>
+        <v>467.7</v>
       </c>
       <c r="D219" t="n">
-        <v>464.7</v>
+        <v>467.7</v>
       </c>
       <c r="E219" t="n">
-        <v>457.8</v>
+        <v>467.7</v>
       </c>
       <c r="F219" t="n">
-        <v>484.2252</v>
+        <v>130.4511438956596</v>
       </c>
       <c r="G219" t="n">
-        <v>459.2883333333336</v>
+        <v>458.9916666666669</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8461,22 +8305,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>461.1</v>
+        <v>462.4</v>
       </c>
       <c r="C220" t="n">
-        <v>460.1</v>
+        <v>464.7</v>
       </c>
       <c r="D220" t="n">
-        <v>461.1</v>
+        <v>464.7</v>
       </c>
       <c r="E220" t="n">
-        <v>460.1</v>
+        <v>457.8</v>
       </c>
       <c r="F220" t="n">
-        <v>1053</v>
+        <v>484.2252</v>
       </c>
       <c r="G220" t="n">
-        <v>459.5083333333335</v>
+        <v>459.2883333333336</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8491,6 +8335,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>461.1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>460.1</v>
+      </c>
+      <c r="D221" t="n">
+        <v>461.1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>460.1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1053</v>
+      </c>
+      <c r="G221" t="n">
+        <v>459.5083333333335</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest WTC.xlsx
+++ b/BackTest/2020-01-19 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M221"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>792.173</v>
       </c>
       <c r="G2" t="n">
+        <v>454.3066666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>465.6516666666663</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1000</v>
       </c>
       <c r="G3" t="n">
+        <v>454</v>
+      </c>
+      <c r="H3" t="n">
         <v>465.633333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="G4" t="n">
+        <v>453.7333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>465.798333333333</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>17.2573</v>
       </c>
       <c r="G5" t="n">
+        <v>453.5333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>465.903333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>2019.7029</v>
       </c>
       <c r="G6" t="n">
+        <v>453.36</v>
+      </c>
+      <c r="H6" t="n">
         <v>465.903333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>22.3813</v>
       </c>
       <c r="G7" t="n">
+        <v>453.42</v>
+      </c>
+      <c r="H7" t="n">
         <v>465.903333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1133.8311</v>
       </c>
       <c r="G8" t="n">
+        <v>453.5933333333332</v>
+      </c>
+      <c r="H8" t="n">
         <v>465.768333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>896.0439</v>
       </c>
       <c r="G9" t="n">
+        <v>454.8266666666666</v>
+      </c>
+      <c r="H9" t="n">
         <v>465.638333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>22.422</v>
       </c>
       <c r="G10" t="n">
+        <v>455.9733333333332</v>
+      </c>
+      <c r="H10" t="n">
         <v>465.4849999999997</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10.6378</v>
       </c>
       <c r="G11" t="n">
+        <v>456.7066666666666</v>
+      </c>
+      <c r="H11" t="n">
         <v>465.3166666666664</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>21.7155</v>
       </c>
       <c r="G12" t="n">
+        <v>457.6999999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>465.1949999999997</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>142.5439</v>
       </c>
       <c r="G13" t="n">
+        <v>458.76</v>
+      </c>
+      <c r="H13" t="n">
         <v>465.0666666666663</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>535.4466</v>
       </c>
       <c r="G14" t="n">
+        <v>460.0866666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>464.9466666666664</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3220.5666</v>
       </c>
       <c r="G15" t="n">
+        <v>461.6199999999999</v>
+      </c>
+      <c r="H15" t="n">
         <v>464.9949999999997</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>3254.1177</v>
       </c>
       <c r="G16" t="n">
+        <v>462.8199999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>464.9799999999997</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>5133.5001</v>
       </c>
       <c r="G17" t="n">
+        <v>464.0866666666666</v>
+      </c>
+      <c r="H17" t="n">
         <v>465.1099999999997</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>6916.6356</v>
       </c>
       <c r="G18" t="n">
+        <v>465.4266666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>465.2099999999998</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>371.0965</v>
       </c>
       <c r="G19" t="n">
+        <v>466.76</v>
+      </c>
+      <c r="H19" t="n">
         <v>465.323333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>70.6491</v>
       </c>
       <c r="G20" t="n">
+        <v>468.0266666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>465.4233333333331</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>70.6491</v>
       </c>
       <c r="G21" t="n">
+        <v>469.04</v>
+      </c>
+      <c r="H21" t="n">
         <v>465.4999999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>140</v>
       </c>
       <c r="G22" t="n">
+        <v>469.9066666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>465.5583333333331</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>152</v>
       </c>
       <c r="G23" t="n">
+        <v>470.6533333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>465.6549999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>222.6</v>
       </c>
       <c r="G24" t="n">
+        <v>471.3733333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>465.7266666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>391.5599</v>
       </c>
       <c r="G25" t="n">
+        <v>472.1733333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>465.7366666666665</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>422.6</v>
       </c>
       <c r="G26" t="n">
+        <v>472.86</v>
+      </c>
+      <c r="H26" t="n">
         <v>465.6916666666664</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>678.2624</v>
       </c>
       <c r="G27" t="n">
+        <v>473.1133333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>465.6149999999998</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>290.9527</v>
       </c>
       <c r="G28" t="n">
+        <v>473.2199999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>465.5016666666664</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>149.0473</v>
       </c>
       <c r="G29" t="n">
+        <v>473.3066666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>465.3883333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>270</v>
       </c>
       <c r="G30" t="n">
+        <v>472.4333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>465.1799999999998</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1.2</v>
       </c>
       <c r="G31" t="n">
+        <v>472.5066666666666</v>
+      </c>
+      <c r="H31" t="n">
         <v>465.1799999999998</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>182.7</v>
       </c>
       <c r="G32" t="n">
+        <v>472.4399999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>465.1966666666665</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>958.6640894736842</v>
       </c>
       <c r="G33" t="n">
+        <v>472.3733333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>465.2333333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1.1</v>
       </c>
       <c r="G34" t="n">
+        <v>472.3066666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>465.2699999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>2.4</v>
       </c>
       <c r="G35" t="n">
+        <v>471.6266666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>465.1533333333331</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>16.614</v>
       </c>
       <c r="G36" t="n">
+        <v>471.5466666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>465.1233333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1140.5906</v>
       </c>
       <c r="G37" t="n">
+        <v>471.3133333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>465.0083333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>34.7033</v>
       </c>
       <c r="G38" t="n">
+        <v>471.02</v>
+      </c>
+      <c r="H38" t="n">
         <v>464.9449999999998</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>5776.1862</v>
       </c>
       <c r="G39" t="n">
+        <v>470.8</v>
+      </c>
+      <c r="H39" t="n">
         <v>464.9016666666665</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>7.1955</v>
       </c>
       <c r="G40" t="n">
+        <v>470.2333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>464.7716666666665</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>100</v>
       </c>
       <c r="G41" t="n">
+        <v>469.7466666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>464.6883333333332</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1.1</v>
       </c>
       <c r="G42" t="n">
+        <v>469.72</v>
+      </c>
+      <c r="H42" t="n">
         <v>464.7299999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>182.1321</v>
       </c>
       <c r="G43" t="n">
+        <v>469.84</v>
+      </c>
+      <c r="H43" t="n">
         <v>464.7949999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1289.0583</v>
       </c>
       <c r="G44" t="n">
+        <v>469.96</v>
+      </c>
+      <c r="H44" t="n">
         <v>464.8583333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>695.6015</v>
       </c>
       <c r="G45" t="n">
+        <v>469.9733333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>464.8399999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>104.7436</v>
       </c>
       <c r="G46" t="n">
+        <v>469.84</v>
+      </c>
+      <c r="H46" t="n">
         <v>464.9733333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1177.6011</v>
       </c>
       <c r="G47" t="n">
+        <v>469.2733333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>465.0266666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1367.4614</v>
       </c>
       <c r="G48" t="n">
+        <v>468.64</v>
+      </c>
+      <c r="H48" t="n">
         <v>465.1099999999999</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>3451.6333</v>
       </c>
       <c r="G49" t="n">
+        <v>467.9</v>
+      </c>
+      <c r="H49" t="n">
         <v>465.175</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>550</v>
       </c>
       <c r="G50" t="n">
+        <v>467.78</v>
+      </c>
+      <c r="H50" t="n">
         <v>465.2416666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>119.9</v>
       </c>
       <c r="G51" t="n">
+        <v>467.42</v>
+      </c>
+      <c r="H51" t="n">
         <v>465.3416666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1413.4225</v>
       </c>
       <c r="G52" t="n">
+        <v>466.6666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>465.3266666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>686.5775</v>
       </c>
       <c r="G53" t="n">
+        <v>465.92</v>
+      </c>
+      <c r="H53" t="n">
         <v>465.2966666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>1033.057</v>
       </c>
       <c r="G54" t="n">
+        <v>465.5466666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>465.6366666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>118.7</v>
       </c>
       <c r="G55" t="n">
+        <v>465.6</v>
+      </c>
+      <c r="H55" t="n">
         <v>465.995</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>119.9</v>
       </c>
       <c r="G56" t="n">
+        <v>465.64</v>
+      </c>
+      <c r="H56" t="n">
         <v>466.2383333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>2045.2157</v>
       </c>
       <c r="G57" t="n">
+        <v>465.3066666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>466.46</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>5323.2984</v>
       </c>
       <c r="G58" t="n">
+        <v>464.5066666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>466.5816666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1.125</v>
       </c>
       <c r="G59" t="n">
+        <v>464.1</v>
+      </c>
+      <c r="H59" t="n">
         <v>466.8633333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>265.2223</v>
       </c>
       <c r="G60" t="n">
+        <v>463.66</v>
+      </c>
+      <c r="H60" t="n">
         <v>466.9216666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>798.877</v>
       </c>
       <c r="G61" t="n">
+        <v>462.6866666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>466.9633333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>798.877</v>
       </c>
       <c r="G62" t="n">
+        <v>462.4866666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>467.0716666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1405.3734</v>
       </c>
       <c r="G63" t="n">
+        <v>462.5199999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>467.24</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>4389.2385</v>
       </c>
       <c r="G64" t="n">
+        <v>462.1533333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>467.28</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>1.2</v>
       </c>
       <c r="G65" t="n">
+        <v>462.3266666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>467.4399999999999</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>20.5155</v>
       </c>
       <c r="G66" t="n">
+        <v>461.9799999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>467.4966666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>2962.475</v>
       </c>
       <c r="G67" t="n">
+        <v>461.9266666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>467.4533333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>24.4472</v>
       </c>
       <c r="G68" t="n">
+        <v>461.9399999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>467.3833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>24.4472</v>
       </c>
       <c r="G69" t="n">
+        <v>461.5133333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>467.3083333333333</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>14.1297</v>
       </c>
       <c r="G70" t="n">
+        <v>461.2066666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>467.3033333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>100</v>
       </c>
       <c r="G71" t="n">
+        <v>460.9666666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>467.3033333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>206.2136</v>
       </c>
       <c r="G72" t="n">
+        <v>460.9133333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>467.2633333333334</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>70.0604</v>
       </c>
       <c r="G73" t="n">
+        <v>461.0466666666665</v>
+      </c>
+      <c r="H73" t="n">
         <v>467.1533333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>1.1</v>
       </c>
       <c r="G74" t="n">
+        <v>460.9666666666665</v>
+      </c>
+      <c r="H74" t="n">
         <v>467.0833333333334</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>84</v>
       </c>
       <c r="G75" t="n">
+        <v>461.1399999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>466.8016666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>1.2012</v>
       </c>
       <c r="G76" t="n">
+        <v>461.5533333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>466.6466666666666</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>500</v>
       </c>
       <c r="G77" t="n">
+        <v>461.3266666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>466.3816666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>2302.3607</v>
       </c>
       <c r="G78" t="n">
+        <v>460.86</v>
+      </c>
+      <c r="H78" t="n">
         <v>466.0983333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>165.1196</v>
       </c>
       <c r="G79" t="n">
+        <v>460.8666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>465.8066666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>3.24</v>
       </c>
       <c r="G80" t="n">
+        <v>460.6199999999999</v>
+      </c>
+      <c r="H80" t="n">
         <v>465.5883333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>3000</v>
       </c>
       <c r="G81" t="n">
+        <v>460.46</v>
+      </c>
+      <c r="H81" t="n">
         <v>465.3516666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>8994.105799999999</v>
       </c>
       <c r="G82" t="n">
+        <v>460.4666666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>465.0933333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>9825.608</v>
       </c>
       <c r="G83" t="n">
+        <v>460.4666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>464.8366666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>2323.6968</v>
       </c>
       <c r="G84" t="n">
+        <v>460.44</v>
+      </c>
+      <c r="H84" t="n">
         <v>464.5749999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>69.3219</v>
       </c>
       <c r="G85" t="n">
+        <v>460.1733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>464.3033333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>930.6781</v>
       </c>
       <c r="G86" t="n">
+        <v>459.84</v>
+      </c>
+      <c r="H86" t="n">
         <v>464.0483333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>2.4</v>
       </c>
       <c r="G87" t="n">
+        <v>459.86</v>
+      </c>
+      <c r="H87" t="n">
         <v>463.9499999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>9760.3128</v>
       </c>
       <c r="G88" t="n">
+        <v>459.5933333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>463.7466666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>3.6</v>
       </c>
       <c r="G89" t="n">
+        <v>459.6466666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>463.6683333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>31.4616</v>
       </c>
       <c r="G90" t="n">
+        <v>459.58</v>
+      </c>
+      <c r="H90" t="n">
         <v>463.5883333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>1.2</v>
       </c>
       <c r="G91" t="n">
+        <v>459.5733333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>463.4133333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>1382.5902</v>
       </c>
       <c r="G92" t="n">
+        <v>459.9333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>463.2549999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>200</v>
       </c>
       <c r="G93" t="n">
+        <v>460</v>
+      </c>
+      <c r="H93" t="n">
         <v>463.0049999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>16.9736</v>
       </c>
       <c r="G94" t="n">
+        <v>460.0333333333334</v>
+      </c>
+      <c r="H94" t="n">
         <v>462.7383333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>10346.0926</v>
       </c>
       <c r="G95" t="n">
+        <v>459.5533333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>462.5699999999999</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>9694.3907</v>
       </c>
       <c r="G96" t="n">
+        <v>459.0933333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>462.2383333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>739.8611</v>
       </c>
       <c r="G97" t="n">
+        <v>458.6333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>461.9233333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>5.1072</v>
       </c>
       <c r="G98" t="n">
+        <v>458.7466666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>461.7683333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>64.89279999999999</v>
       </c>
       <c r="G99" t="n">
+        <v>458.8866666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>461.5966666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>34.6872</v>
       </c>
       <c r="G100" t="n">
+        <v>458.9533333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>461.4833333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>452.2744</v>
       </c>
       <c r="G101" t="n">
+        <v>459.1333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>461.3949999999999</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>12712.2096</v>
       </c>
       <c r="G102" t="n">
+        <v>458.8133333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>461.2233333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>163.2699</v>
       </c>
       <c r="G103" t="n">
+        <v>458.8133333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>460.99</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>2235.5605</v>
       </c>
       <c r="G104" t="n">
+        <v>458.26</v>
+      </c>
+      <c r="H104" t="n">
         <v>460.7433333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>3831.6725</v>
       </c>
       <c r="G105" t="n">
+        <v>457.9933333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>460.5933333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>523.5853</v>
       </c>
       <c r="G106" t="n">
+        <v>457.3666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>460.295</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>731.8852000000001</v>
       </c>
       <c r="G107" t="n">
+        <v>456.5533333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>460.0749999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>6183.3353</v>
       </c>
       <c r="G108" t="n">
+        <v>455.9666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>459.8366666666666</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>402.9235</v>
       </c>
       <c r="G109" t="n">
+        <v>455.4466666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>459.6249999999999</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>200</v>
       </c>
       <c r="G110" t="n">
+        <v>455.1466666666666</v>
+      </c>
+      <c r="H110" t="n">
         <v>459.4116666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>17914.4472</v>
       </c>
       <c r="G111" t="n">
+        <v>455.1533333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>459.1716666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>6201</v>
       </c>
       <c r="G112" t="n">
+        <v>455.1599999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>459.0466666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>3581.6595</v>
       </c>
       <c r="G113" t="n">
+        <v>454.2466666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>458.85</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>1300.8656</v>
       </c>
       <c r="G114" t="n">
+        <v>453.3333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>458.5433333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>34.5874</v>
       </c>
       <c r="G115" t="n">
+        <v>452.5333333333332</v>
+      </c>
+      <c r="H115" t="n">
         <v>458.2166666666666</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>3855.6197</v>
       </c>
       <c r="G116" t="n">
+        <v>451.6866666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>457.9066666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>13.9125</v>
       </c>
       <c r="G117" t="n">
+        <v>450.84</v>
+      </c>
+      <c r="H117" t="n">
         <v>457.6066666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>425.7158</v>
       </c>
       <c r="G118" t="n">
+        <v>450.1199999999999</v>
+      </c>
+      <c r="H118" t="n">
         <v>457.3933333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>9389.5771</v>
       </c>
       <c r="G119" t="n">
+        <v>449.4533333333333</v>
+      </c>
+      <c r="H119" t="n">
         <v>457.0816666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>203.2576</v>
       </c>
       <c r="G120" t="n">
+        <v>448.7333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>456.8616666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>865.0619</v>
       </c>
       <c r="G121" t="n">
+        <v>448.0733333333332</v>
+      </c>
+      <c r="H121" t="n">
         <v>456.6416666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>1767.2898</v>
       </c>
       <c r="G122" t="n">
+        <v>447.5933333333332</v>
+      </c>
+      <c r="H122" t="n">
         <v>456.3516666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>3237.3421</v>
       </c>
       <c r="G123" t="n">
+        <v>447.1133333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>455.985</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>8.244400000000001</v>
       </c>
       <c r="G124" t="n">
+        <v>446.6999999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>455.7616666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>3237.3422</v>
       </c>
       <c r="G125" t="n">
+        <v>446.22</v>
+      </c>
+      <c r="H125" t="n">
         <v>455.385</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>819.7386</v>
       </c>
       <c r="G126" t="n">
+        <v>445.74</v>
+      </c>
+      <c r="H126" t="n">
         <v>455.1116666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>121.4614</v>
       </c>
       <c r="G127" t="n">
+        <v>445.3933333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>454.9133333333332</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>1672.7508</v>
       </c>
       <c r="G128" t="n">
+        <v>445.2066666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>454.6666666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>45.2069</v>
       </c>
       <c r="G129" t="n">
+        <v>445.0199999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>454.42</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>164.5673</v>
       </c>
       <c r="G130" t="n">
+        <v>444.8266666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>454.1216666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>2695.8615</v>
       </c>
       <c r="G131" t="n">
+        <v>444.6533333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>453.8283333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>1.2</v>
       </c>
       <c r="G132" t="n">
+        <v>444.3933333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>453.4766666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,24 +5431,21 @@
         <v>1292.6814</v>
       </c>
       <c r="G133" t="n">
+        <v>444.2533333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>453.1949999999999</v>
       </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>443.1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5074,22 +5469,25 @@
         <v>500</v>
       </c>
       <c r="G134" t="n">
+        <v>444.1133333333334</v>
+      </c>
+      <c r="H134" t="n">
         <v>452.8683333333332</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5113,24 +5511,29 @@
         <v>2981.0852</v>
       </c>
       <c r="G135" t="n">
+        <v>443.9933333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>452.5749999999999</v>
       </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
         <v>443.1</v>
       </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,22 +5557,29 @@
         <v>273.2157</v>
       </c>
       <c r="G136" t="n">
+        <v>443.8800000000001</v>
+      </c>
+      <c r="H136" t="n">
         <v>452.2233333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="L136" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,24 +5603,25 @@
         <v>1.2</v>
       </c>
       <c r="G137" t="n">
+        <v>443.7666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>451.9616666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
         <v>443.5</v>
       </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5234,22 +5645,29 @@
         <v>479.4294</v>
       </c>
       <c r="G138" t="n">
+        <v>443.7933333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>451.7183333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="L138" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5273,24 +5691,29 @@
         <v>1.2</v>
       </c>
       <c r="G139" t="n">
+        <v>443.9266666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>451.5266666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
         <v>444.4</v>
       </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5314,22 +5737,25 @@
         <v>1.2</v>
       </c>
       <c r="G140" t="n">
+        <v>443.96</v>
+      </c>
+      <c r="H140" t="n">
         <v>451.22</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>447</v>
+      </c>
+      <c r="L140" t="n">
+        <v>447</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5353,22 +5779,29 @@
         <v>479.4294</v>
       </c>
       <c r="G141" t="n">
+        <v>443.9933333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>450.9949999999999</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="L141" t="n">
+        <v>447</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,22 +5825,29 @@
         <v>2013.9213</v>
       </c>
       <c r="G142" t="n">
+        <v>443.9866666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>450.7933333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="L142" t="n">
+        <v>447</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,22 +5871,25 @@
         <v>100</v>
       </c>
       <c r="G143" t="n">
+        <v>444.1666666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>450.5916666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="L143" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,22 +5913,29 @@
         <v>780.3441</v>
       </c>
       <c r="G144" t="n">
+        <v>444.2533333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>450.3733333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="L144" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5509,22 +5959,29 @@
         <v>1880.5132</v>
       </c>
       <c r="G145" t="n">
+        <v>444.5133333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>450.2066666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="L145" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,22 +6005,29 @@
         <v>6642.4998</v>
       </c>
       <c r="G146" t="n">
+        <v>444.5199999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>449.9983333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>447</v>
+      </c>
+      <c r="L146" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,22 +6051,29 @@
         <v>1.12</v>
       </c>
       <c r="G147" t="n">
+        <v>445.1133333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>449.79</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="L147" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5626,22 +6097,27 @@
         <v>237.4</v>
       </c>
       <c r="G148" t="n">
+        <v>445.7599999999999</v>
+      </c>
+      <c r="H148" t="n">
         <v>449.7366666666667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="L148" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5665,22 +6141,27 @@
         <v>2115.729</v>
       </c>
       <c r="G149" t="n">
+        <v>446.4066666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>449.5583333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="L149" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5704,22 +6185,27 @@
         <v>1748.6272</v>
       </c>
       <c r="G150" t="n">
+        <v>447.1999999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>449.48</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="L150" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5743,22 +6229,27 @@
         <v>1316.8106</v>
       </c>
       <c r="G151" t="n">
+        <v>447.9866666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>449.3266666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L151" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5782,22 +6273,27 @@
         <v>1976.2857</v>
       </c>
       <c r="G152" t="n">
+        <v>448.78</v>
+      </c>
+      <c r="H152" t="n">
         <v>449.1733333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="L152" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,22 +6317,27 @@
         <v>1079.0307</v>
       </c>
       <c r="G153" t="n">
+        <v>449.5066666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>449.095</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L153" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5860,22 +6361,27 @@
         <v>2.6711</v>
       </c>
       <c r="G154" t="n">
+        <v>450.4066666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>449.1199999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L154" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5899,22 +6405,27 @@
         <v>19.7102</v>
       </c>
       <c r="G155" t="n">
+        <v>451.1333333333333</v>
+      </c>
+      <c r="H155" t="n">
         <v>449.115</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L155" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5938,22 +6449,27 @@
         <v>3213.6047</v>
       </c>
       <c r="G156" t="n">
+        <v>451.8333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>449.18</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="L156" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,22 +6493,27 @@
         <v>1.2</v>
       </c>
       <c r="G157" t="n">
+        <v>452.04</v>
+      </c>
+      <c r="H157" t="n">
         <v>449.145</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="L157" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,22 +6537,27 @@
         <v>246.282</v>
       </c>
       <c r="G158" t="n">
+        <v>452.2466666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>448.9666666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="L158" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6055,22 +6581,27 @@
         <v>1.2</v>
       </c>
       <c r="G159" t="n">
+        <v>452.4</v>
+      </c>
+      <c r="H159" t="n">
         <v>448.7516666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6094,22 +6625,27 @@
         <v>1284.326</v>
       </c>
       <c r="G160" t="n">
+        <v>452.3933333333334</v>
+      </c>
+      <c r="H160" t="n">
         <v>448.5666666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+      <c r="L160" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6133,22 +6669,27 @@
         <v>215.674</v>
       </c>
       <c r="G161" t="n">
+        <v>452.5533333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>448.3533333333334</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+      <c r="L161" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,22 +6713,27 @@
         <v>1.2</v>
       </c>
       <c r="G162" t="n">
+        <v>452.6133333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>448.24</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+      <c r="L162" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,22 +6757,27 @@
         <v>271.0618</v>
       </c>
       <c r="G163" t="n">
+        <v>452.3533333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>448.1216666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+      <c r="L163" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6250,22 +6801,27 @@
         <v>229</v>
       </c>
       <c r="G164" t="n">
+        <v>452.1666666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>448.035</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+      <c r="L164" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6289,22 +6845,27 @@
         <v>1387.2836</v>
       </c>
       <c r="G165" t="n">
+        <v>451.8133333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>447.9350000000001</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+      <c r="L165" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,22 +6889,27 @@
         <v>243.8496</v>
       </c>
       <c r="G166" t="n">
+        <v>451.5733333333332</v>
+      </c>
+      <c r="H166" t="n">
         <v>447.8783333333334</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+      <c r="L166" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6367,22 +6933,27 @@
         <v>243.8518</v>
       </c>
       <c r="G167" t="n">
+        <v>451.3333333333332</v>
+      </c>
+      <c r="H167" t="n">
         <v>447.8683333333335</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+      <c r="L167" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6406,22 +6977,27 @@
         <v>238.6</v>
       </c>
       <c r="G168" t="n">
+        <v>451.0466666666665</v>
+      </c>
+      <c r="H168" t="n">
         <v>447.8650000000001</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+      <c r="L168" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6445,22 +7021,27 @@
         <v>669.9619</v>
       </c>
       <c r="G169" t="n">
+        <v>450.4066666666665</v>
+      </c>
+      <c r="H169" t="n">
         <v>447.8600000000001</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L169" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,22 +7065,27 @@
         <v>623.537</v>
       </c>
       <c r="G170" t="n">
+        <v>450.0999999999999</v>
+      </c>
+      <c r="H170" t="n">
         <v>447.8533333333334</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L170" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,22 +7109,27 @@
         <v>10909.0237</v>
       </c>
       <c r="G171" t="n">
+        <v>449.8333333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>447.8500000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L171" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6562,22 +7153,27 @@
         <v>10897.653</v>
       </c>
       <c r="G172" t="n">
+        <v>449.9666666666665</v>
+      </c>
+      <c r="H172" t="n">
         <v>447.8466666666667</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L172" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6601,22 +7197,27 @@
         <v>1000</v>
       </c>
       <c r="G173" t="n">
+        <v>449.7666666666665</v>
+      </c>
+      <c r="H173" t="n">
         <v>447.8466666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6640,22 +7241,27 @@
         <v>458.209</v>
       </c>
       <c r="G174" t="n">
+        <v>450.0266666666665</v>
+      </c>
+      <c r="H174" t="n">
         <v>447.9250000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6679,22 +7285,27 @@
         <v>830.9244</v>
       </c>
       <c r="G175" t="n">
+        <v>450.3466666666665</v>
+      </c>
+      <c r="H175" t="n">
         <v>448.0200000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6718,22 +7329,27 @@
         <v>169.0756</v>
       </c>
       <c r="G176" t="n">
+        <v>450.6666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>448.0983333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6757,22 +7373,27 @@
         <v>6653.3257</v>
       </c>
       <c r="G177" t="n">
+        <v>450.5866666666665</v>
+      </c>
+      <c r="H177" t="n">
         <v>448.1766666666668</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L177" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6796,22 +7417,27 @@
         <v>467.7087</v>
       </c>
       <c r="G178" t="n">
+        <v>450.4666666666666</v>
+      </c>
+      <c r="H178" t="n">
         <v>448.2083333333334</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L178" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6835,22 +7461,27 @@
         <v>1.1</v>
       </c>
       <c r="G179" t="n">
+        <v>450.8666666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>448.3883333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,22 +7505,27 @@
         <v>500</v>
       </c>
       <c r="G180" t="n">
+        <v>451.2666666666666</v>
+      </c>
+      <c r="H180" t="n">
         <v>448.5683333333334</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L180" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6913,22 +7549,27 @@
         <v>500</v>
       </c>
       <c r="G181" t="n">
+        <v>451.5533333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>448.7483333333333</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6952,22 +7593,27 @@
         <v>1160.2576</v>
       </c>
       <c r="G182" t="n">
+        <v>451.5199999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>448.8500000000001</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="L182" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6991,22 +7637,27 @@
         <v>7010.0466</v>
       </c>
       <c r="G183" t="n">
+        <v>451.92</v>
+      </c>
+      <c r="H183" t="n">
         <v>449.0666666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L183" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7030,22 +7681,27 @@
         <v>22.5001</v>
       </c>
       <c r="G184" t="n">
+        <v>452.3666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>449.2766666666667</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L184" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7069,22 +7725,27 @@
         <v>6716.1963</v>
       </c>
       <c r="G185" t="n">
+        <v>453.8466666666666</v>
+      </c>
+      <c r="H185" t="n">
         <v>449.76</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L185" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7108,22 +7769,27 @@
         <v>1739.0994</v>
       </c>
       <c r="G186" t="n">
+        <v>455.4333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>450.2733333333334</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7147,22 +7813,29 @@
         <v>4862.0949</v>
       </c>
       <c r="G187" t="n">
+        <v>457.0333333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>450.7566666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7184,18 +7857,27 @@
         <v>6345.0438</v>
       </c>
       <c r="G188" t="n">
+        <v>459.1666666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>451.3366666666667</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +7901,27 @@
         <v>2.7422</v>
       </c>
       <c r="G189" t="n">
+        <v>460.92</v>
+      </c>
+      <c r="H189" t="n">
         <v>451.9</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +7945,27 @@
         <v>5</v>
       </c>
       <c r="G190" t="n">
+        <v>462.6</v>
+      </c>
+      <c r="H190" t="n">
         <v>452.4633333333334</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +7989,27 @@
         <v>7745.0476</v>
       </c>
       <c r="G191" t="n">
+        <v>462.9933333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>452.6833333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7324,18 +8033,27 @@
         <v>619.1224999999999</v>
       </c>
       <c r="G192" t="n">
+        <v>463.3866666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>452.925</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7359,18 +8077,27 @@
         <v>200</v>
       </c>
       <c r="G193" t="n">
+        <v>464.5066666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>453.2716666666667</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7394,18 +8121,27 @@
         <v>1000</v>
       </c>
       <c r="G194" t="n">
+        <v>464.84</v>
+      </c>
+      <c r="H194" t="n">
         <v>453.5700000000001</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7429,18 +8165,27 @@
         <v>105.2</v>
       </c>
       <c r="G195" t="n">
+        <v>465.3333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>453.9033333333334</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7464,18 +8209,27 @@
         <v>1129.8252</v>
       </c>
       <c r="G196" t="n">
+        <v>465.8266666666667</v>
+      </c>
+      <c r="H196" t="n">
         <v>454.2350000000001</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7499,18 +8253,27 @@
         <v>3505.0233</v>
       </c>
       <c r="G197" t="n">
+        <v>466.0866666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>454.4300000000001</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7534,18 +8297,27 @@
         <v>1.5</v>
       </c>
       <c r="G198" t="n">
+        <v>466.5066666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>454.745</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7569,18 +8341,27 @@
         <v>107.6047</v>
       </c>
       <c r="G199" t="n">
+        <v>466.3466666666666</v>
+      </c>
+      <c r="H199" t="n">
         <v>454.8816666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7604,18 +8385,27 @@
         <v>1.5</v>
       </c>
       <c r="G200" t="n">
+        <v>465.5266666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>455.1516666666667</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,18 +8429,27 @@
         <v>3.1</v>
       </c>
       <c r="G201" t="n">
+        <v>464.6666666666666</v>
+      </c>
+      <c r="H201" t="n">
         <v>455.4416666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7674,18 +8473,27 @@
         <v>2</v>
       </c>
       <c r="G202" t="n">
+        <v>463.3466666666666</v>
+      </c>
+      <c r="H202" t="n">
         <v>455.5966666666667</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7709,18 +8517,27 @@
         <v>7.74</v>
       </c>
       <c r="G203" t="n">
+        <v>462.1933333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>455.8433333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7744,18 +8561,27 @@
         <v>1240.8129</v>
       </c>
       <c r="G204" t="n">
+        <v>460.7333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>456.02</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7779,18 +8605,27 @@
         <v>500</v>
       </c>
       <c r="G205" t="n">
+        <v>459.5199999999999</v>
+      </c>
+      <c r="H205" t="n">
         <v>456.215</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7814,22 +8649,27 @@
         <v>1.1</v>
       </c>
       <c r="G206" t="n">
+        <v>459.7133333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>456.4816666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>458.7</v>
-      </c>
-      <c r="K206" t="n">
-        <v>458.7</v>
-      </c>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7853,24 +8693,27 @@
         <v>538</v>
       </c>
       <c r="G207" t="n">
+        <v>459.8733333333332</v>
+      </c>
+      <c r="H207" t="n">
         <v>456.615</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>458.7</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,24 +8737,27 @@
         <v>1.2</v>
       </c>
       <c r="G208" t="n">
+        <v>459.7333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>456.765</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>458.7</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7935,18 +8781,27 @@
         <v>276.7447</v>
       </c>
       <c r="G209" t="n">
+        <v>459.8933333333333</v>
+      </c>
+      <c r="H209" t="n">
         <v>456.9416666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7970,18 +8825,27 @@
         <v>8.2553</v>
       </c>
       <c r="G210" t="n">
+        <v>459.8533333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>457.0666666666667</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8005,18 +8869,27 @@
         <v>8.2035</v>
       </c>
       <c r="G211" t="n">
+        <v>459.8533333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>457.2016666666668</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8040,18 +8913,27 @@
         <v>344.2457</v>
       </c>
       <c r="G212" t="n">
+        <v>460.4066666666666</v>
+      </c>
+      <c r="H212" t="n">
         <v>457.3366666666668</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8075,18 +8957,27 @@
         <v>89.7636</v>
       </c>
       <c r="G213" t="n">
+        <v>460.4799999999998</v>
+      </c>
+      <c r="H213" t="n">
         <v>457.4883333333335</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8110,18 +9001,27 @@
         <v>14108.2483</v>
       </c>
       <c r="G214" t="n">
+        <v>461.3666666666666</v>
+      </c>
+      <c r="H214" t="n">
         <v>457.6216666666668</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8145,18 +9045,27 @@
         <v>7.6734</v>
       </c>
       <c r="G215" t="n">
+        <v>461.8133333333332</v>
+      </c>
+      <c r="H215" t="n">
         <v>457.8216666666668</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8180,18 +9089,27 @@
         <v>333.9991</v>
       </c>
       <c r="G216" t="n">
+        <v>462.1799999999999</v>
+      </c>
+      <c r="H216" t="n">
         <v>458.0283333333335</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8215,18 +9133,27 @@
         <v>24.249</v>
       </c>
       <c r="G217" t="n">
+        <v>462.9933333333332</v>
+      </c>
+      <c r="H217" t="n">
         <v>458.3350000000002</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="L217" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8250,18 +9177,27 @@
         <v>2</v>
       </c>
       <c r="G218" t="n">
+        <v>463.4466666666665</v>
+      </c>
+      <c r="H218" t="n">
         <v>458.6433333333335</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8285,18 +9221,27 @@
         <v>130.4511438956596</v>
       </c>
       <c r="G219" t="n">
+        <v>464.2866666666665</v>
+      </c>
+      <c r="H219" t="n">
         <v>458.9916666666669</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8320,18 +9265,27 @@
         <v>484.2252</v>
       </c>
       <c r="G220" t="n">
+        <v>464.6866666666665</v>
+      </c>
+      <c r="H220" t="n">
         <v>459.2883333333336</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8355,18 +9309,467 @@
         <v>1053</v>
       </c>
       <c r="G221" t="n">
+        <v>464.6599999999999</v>
+      </c>
+      <c r="H221" t="n">
         <v>459.5083333333335</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>461</v>
+      </c>
+      <c r="C222" t="n">
+        <v>459</v>
+      </c>
+      <c r="D222" t="n">
+        <v>461</v>
+      </c>
+      <c r="E222" t="n">
+        <v>459</v>
+      </c>
+      <c r="F222" t="n">
+        <v>131.5856</v>
+      </c>
+      <c r="G222" t="n">
+        <v>464.5933333333332</v>
+      </c>
+      <c r="H222" t="n">
+        <v>459.6100000000002</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>459</v>
+      </c>
+      <c r="C223" t="n">
+        <v>458</v>
+      </c>
+      <c r="D223" t="n">
+        <v>459</v>
+      </c>
+      <c r="E223" t="n">
+        <v>458</v>
+      </c>
+      <c r="F223" t="n">
+        <v>870.037</v>
+      </c>
+      <c r="G223" t="n">
+        <v>464.3399999999999</v>
+      </c>
+      <c r="H223" t="n">
+        <v>459.7616666666668</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>459</v>
+      </c>
+      <c r="C224" t="n">
+        <v>459</v>
+      </c>
+      <c r="D224" t="n">
+        <v>459</v>
+      </c>
+      <c r="E224" t="n">
+        <v>459</v>
+      </c>
+      <c r="F224" t="n">
+        <v>16.331</v>
+      </c>
+      <c r="G224" t="n">
+        <v>464.0466666666665</v>
+      </c>
+      <c r="H224" t="n">
+        <v>459.9116666666668</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="C225" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="D225" t="n">
+        <v>457.8</v>
+      </c>
+      <c r="E225" t="n">
+        <v>457.7</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1796.5556</v>
+      </c>
+      <c r="G225" t="n">
+        <v>463.7066666666665</v>
+      </c>
+      <c r="H225" t="n">
+        <v>460.0400000000001</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>458.9</v>
+      </c>
+      <c r="C226" t="n">
+        <v>458.9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>458.9</v>
+      </c>
+      <c r="E226" t="n">
+        <v>458.9</v>
+      </c>
+      <c r="F226" t="n">
+        <v>193.4453</v>
+      </c>
+      <c r="G226" t="n">
+        <v>463.4066666666665</v>
+      </c>
+      <c r="H226" t="n">
+        <v>460.1600000000001</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>459</v>
+      </c>
+      <c r="C227" t="n">
+        <v>459</v>
+      </c>
+      <c r="D227" t="n">
+        <v>459</v>
+      </c>
+      <c r="E227" t="n">
+        <v>459</v>
+      </c>
+      <c r="F227" t="n">
+        <v>280.4069</v>
+      </c>
+      <c r="G227" t="n">
+        <v>463.1133333333332</v>
+      </c>
+      <c r="H227" t="n">
+        <v>460.2816666666668</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>459</v>
+      </c>
+      <c r="C228" t="n">
+        <v>463</v>
+      </c>
+      <c r="D228" t="n">
+        <v>463</v>
+      </c>
+      <c r="E228" t="n">
+        <v>459</v>
+      </c>
+      <c r="F228" t="n">
+        <v>53.99647688984881</v>
+      </c>
+      <c r="G228" t="n">
+        <v>463.0199999999999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>460.4816666666668</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>463</v>
+      </c>
+      <c r="C229" t="n">
+        <v>463</v>
+      </c>
+      <c r="D229" t="n">
+        <v>463</v>
+      </c>
+      <c r="E229" t="n">
+        <v>463</v>
+      </c>
+      <c r="F229" t="n">
+        <v>32.75672311015119</v>
+      </c>
+      <c r="G229" t="n">
+        <v>462.6533333333333</v>
+      </c>
+      <c r="H229" t="n">
+        <v>460.6833333333335</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>463</v>
+      </c>
+      <c r="C230" t="n">
+        <v>463</v>
+      </c>
+      <c r="D230" t="n">
+        <v>463</v>
+      </c>
+      <c r="E230" t="n">
+        <v>463</v>
+      </c>
+      <c r="F230" t="n">
+        <v>47.096</v>
+      </c>
+      <c r="G230" t="n">
+        <v>462.3599999999999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>460.8866666666668</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>463</v>
+      </c>
+      <c r="C231" t="n">
+        <v>463</v>
+      </c>
+      <c r="D231" t="n">
+        <v>463</v>
+      </c>
+      <c r="E231" t="n">
+        <v>463</v>
+      </c>
+      <c r="F231" t="n">
+        <v>27.64417688984881</v>
+      </c>
+      <c r="G231" t="n">
+        <v>462.0666666666666</v>
+      </c>
+      <c r="H231" t="n">
+        <v>461.0866666666668</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest WTC.xlsx
+++ b/BackTest/2020-01-19 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-26193.66084301958</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-26193.66084301958</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-30916.75134301959</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-28608.85934301959</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-38296.78894301959</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-42081.56544301959</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-46115.47284301958</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-46132.57344301958</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-46132.57344301958</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-46332.30074301958</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-46391.30074301958</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-46017.23804301958</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-46018.63604301958</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-46024.55144301958</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-46044.69214301958</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-46349.24514301958</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-46882.36714301958</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-46882.36714301958</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-46977.66514301959</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-46977.66514301959</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-46977.66514301959</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-64122.66004301958</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-61774.38344301959</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-60768.73244301959</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-60189.87264301959</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-62044.70994301959</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-62155.68784301958</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-62138.42994301958</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-49875.19115354591</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-44099.00495354591</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-44106.20045354591</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-44006.20045354591</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-48675.19275354591</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-48555.29275354591</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-50655.29275354591</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-49622.23575354591</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-49503.53575354591</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-49503.53575354591</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-51548.75145354591</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-56872.04985354591</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-56870.92485354591</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-57136.14715354591</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -6622,10 +6622,14 @@
         <v>-113497.9345535459</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>443.1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6658,8 +6662,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +6701,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +6740,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6776,19 @@
         <v>-110518.0493535459</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +6820,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6856,19 @@
         <v>-110246.0336535459</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="J195" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +6900,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6936,19 @@
         <v>-109765.4042535459</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="J197" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6977,19 @@
         <v>-109766.6042535459</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>447</v>
+      </c>
+      <c r="J198" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7018,19 @@
         <v>-109766.6042535459</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="J199" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7059,19 @@
         <v>-107752.6829535459</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="J200" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7100,19 @@
         <v>-107752.6829535459</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="J201" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,15 +7141,19 @@
         <v>-108533.0270535459</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>445.9</v>
       </c>
       <c r="J202" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+        <v>443.1</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7092,11 +7186,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
@@ -7131,11 +7225,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7170,7 +7264,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7209,7 +7303,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7248,7 +7342,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7287,7 +7381,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7326,7 +7420,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7365,7 +7459,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7404,7 +7498,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7443,7 +7537,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7482,7 +7576,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7521,7 +7615,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7560,7 +7654,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7599,7 +7693,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7638,7 +7732,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7677,7 +7771,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7716,7 +7810,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7755,7 +7849,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7794,7 +7888,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7833,7 +7927,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7872,7 +7966,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7907,13 +8001,13 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>450</v>
       </c>
       <c r="J224" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -7948,13 +8042,13 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>451.7</v>
       </c>
       <c r="J225" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -7989,13 +8083,13 @@
         <v>-113292.1964535459</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>451.7</v>
       </c>
       <c r="J226" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8030,13 +8124,11 @@
         <v>-113962.1583535459</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>451</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8071,13 +8163,11 @@
         <v>-114585.6953535459</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>450.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8112,11 +8202,13 @@
         <v>-103676.6716535459</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>450.8</v>
+      </c>
       <c r="J229" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8155,7 +8247,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8194,7 +8286,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8233,7 +8325,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8272,7 +8364,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8307,13 +8399,13 @@
         <v>-103387.5382535459</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>451.7</v>
       </c>
       <c r="J234" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8348,13 +8440,13 @@
         <v>-103387.5382535459</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>451.7</v>
       </c>
       <c r="J235" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8389,13 +8481,11 @@
         <v>-103855.2469535459</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>451.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8430,13 +8520,13 @@
         <v>-103854.1469535459</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>447.1</v>
       </c>
       <c r="J237" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8471,13 +8561,11 @@
         <v>-103854.1469535459</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8516,7 +8604,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8551,13 +8639,11 @@
         <v>-105014.4045535459</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8592,11 +8678,13 @@
         <v>-98004.35795354591</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>451.2</v>
+      </c>
       <c r="J241" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8635,7 +8723,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8674,7 +8762,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8713,7 +8801,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8752,7 +8840,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8791,7 +8879,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8830,7 +8918,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8869,7 +8957,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8908,7 +8996,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8947,7 +9035,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8986,7 +9074,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9025,7 +9113,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9064,7 +9152,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9103,7 +9191,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9142,7 +9230,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9181,7 +9269,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9220,7 +9308,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9259,7 +9347,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9298,7 +9386,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9337,7 +9425,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9376,7 +9464,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9415,7 +9503,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9454,7 +9542,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9493,7 +9581,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9532,7 +9620,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9571,7 +9659,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9610,7 +9698,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9649,7 +9737,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9688,7 +9776,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9727,7 +9815,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9766,7 +9854,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9805,7 +9893,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9844,7 +9932,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9883,7 +9971,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9922,7 +10010,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9961,7 +10049,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10000,7 +10088,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10039,7 +10127,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10078,7 +10166,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10117,7 +10205,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10156,7 +10244,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10195,7 +10283,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10234,7 +10322,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10273,7 +10361,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10312,7 +10400,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10351,7 +10439,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10390,7 +10478,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10429,7 +10517,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10468,7 +10556,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>445.9</v>
+        <v>443.1</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10481,6 +10569,6 @@
       <c r="M289" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WTC.xlsx
+++ b/BackTest/2020-01-19 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-26193.66084301958</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-26193.66084301958</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-30916.75134301959</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-42085.91184301959</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-42081.56544301959</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-46115.47284301958</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-46132.57344301958</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-46132.57344301958</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-46332.30074301958</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-46391.30074301958</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-46017.23804301958</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-46018.63604301958</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-46024.55144301958</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-46044.69214301958</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-46349.24514301958</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-46882.36714301958</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-46882.36714301958</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-46977.66514301959</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-46977.66514301959</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-46977.66514301959</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-64122.66004301958</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-61774.38344301959</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-60768.73244301959</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-60189.87264301959</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-62044.70994301959</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-62155.68784301958</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-62138.42994301958</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-49875.19115354591</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-44099.00495354591</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-44106.20045354591</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-44006.20045354591</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-48675.19275354591</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-48555.29275354591</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-50655.29275354591</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-49622.23575354591</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-49503.53575354591</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-49503.53575354591</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-51548.75145354591</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-56872.04985354591</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-56870.92485354591</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-57136.14715354591</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -6622,14 +6622,10 @@
         <v>-113497.9345535459</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="J189" t="n">
-        <v>443.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
@@ -6662,576 +6658,526 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="C191" t="n">
         <v>443.1</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="D191" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="E191" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1292.6814</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-113499.1345535459</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="D192" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>443.1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>500</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-113499.1345535459</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="C193" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="E193" t="n">
+        <v>443.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2981.0852</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-110518.0493535459</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="E194" t="n">
+        <v>443.5</v>
+      </c>
+      <c r="F194" t="n">
+        <v>273.2157</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-110244.8336535459</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="C195" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="D195" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="E195" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-110246.0336535459</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="C196" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="D196" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="E196" t="n">
+        <v>444.4</v>
+      </c>
+      <c r="F196" t="n">
+        <v>479.4294</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-109766.6042535459</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="J196" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>447</v>
+      </c>
+      <c r="C197" t="n">
+        <v>447</v>
+      </c>
+      <c r="D197" t="n">
+        <v>447</v>
+      </c>
+      <c r="E197" t="n">
+        <v>447</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-109765.4042535459</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="C191" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="D191" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="E191" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1292.6814</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-113499.1345535459</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-109766.6042535459</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>443.4</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="C199" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="D199" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="E199" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="F199" t="n">
+        <v>479.4294</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-109766.6042535459</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="J199" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="C200" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2013.9213</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-107752.6829535459</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="J200" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="C201" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="D201" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="E201" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="F201" t="n">
+        <v>100</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-107752.6829535459</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="J201" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="C202" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="D202" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="E202" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>780.3441</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-108533.0270535459</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="J202" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>447</v>
+      </c>
+      <c r="C203" t="n">
+        <v>447</v>
+      </c>
+      <c r="D203" t="n">
+        <v>447</v>
+      </c>
+      <c r="E203" t="n">
+        <v>446.6</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1880.5132</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-106652.5138535459</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="J203" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>447</v>
+      </c>
+      <c r="C204" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>447</v>
+      </c>
+      <c r="E204" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="F204" t="n">
+        <v>6642.4998</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-113295.0136535459</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>447</v>
+      </c>
+      <c r="J204" t="n">
+        <v>445.9</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="C192" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="E192" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="F192" t="n">
-        <v>500</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-113499.1345535459</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="C193" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="D193" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="E193" t="n">
-        <v>443.3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>2981.0852</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-110518.0493535459</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="J193" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="C194" t="n">
-        <v>443.5</v>
-      </c>
-      <c r="D194" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="E194" t="n">
-        <v>443.5</v>
-      </c>
-      <c r="F194" t="n">
-        <v>273.2157</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-110244.8336535459</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="C195" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="D195" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="E195" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="F195" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-110246.0336535459</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>443.5</v>
-      </c>
-      <c r="J195" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="C196" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="D196" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="E196" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="F196" t="n">
-        <v>479.4294</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-109766.6042535459</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>447</v>
-      </c>
-      <c r="C197" t="n">
-        <v>447</v>
-      </c>
-      <c r="D197" t="n">
-        <v>447</v>
-      </c>
-      <c r="E197" t="n">
-        <v>447</v>
-      </c>
-      <c r="F197" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-109765.4042535459</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="J197" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="C198" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="D198" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="E198" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-109766.6042535459</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>447</v>
-      </c>
-      <c r="J198" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="C199" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="D199" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="E199" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="F199" t="n">
-        <v>479.4294</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-109766.6042535459</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="J199" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="C200" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="D200" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="E200" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="F200" t="n">
-        <v>2013.9213</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-107752.6829535459</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="J200" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="C201" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="D201" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="E201" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="F201" t="n">
-        <v>100</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-107752.6829535459</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="J201" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="C202" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="D202" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="E202" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="F202" t="n">
-        <v>780.3441</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-108533.0270535459</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="J202" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>447</v>
-      </c>
-      <c r="C203" t="n">
-        <v>447</v>
-      </c>
-      <c r="D203" t="n">
-        <v>447</v>
-      </c>
-      <c r="E203" t="n">
-        <v>446.6</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1880.5132</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-106652.5138535459</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>447</v>
-      </c>
-      <c r="C204" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="D204" t="n">
-        <v>447</v>
-      </c>
-      <c r="E204" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="F204" t="n">
-        <v>6642.4998</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-113295.0136535459</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7264,7 +7210,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7303,7 +7249,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7342,7 +7288,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7381,7 +7327,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7420,7 +7366,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7459,7 +7405,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7498,7 +7444,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7537,7 +7483,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7576,7 +7522,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7615,7 +7561,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7654,7 +7600,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7693,7 +7639,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7732,7 +7678,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7771,7 +7717,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7810,7 +7756,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7849,7 +7795,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7888,7 +7834,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7927,7 +7873,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7966,7 +7912,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8001,13 +7947,11 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8042,13 +7986,11 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>451.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8083,13 +8025,11 @@
         <v>-113292.1964535459</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>451.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8128,7 +8068,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8167,7 +8107,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8202,13 +8142,11 @@
         <v>-103676.6716535459</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>450.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8247,7 +8185,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8286,7 +8224,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8321,11 +8259,13 @@
         <v>-104218.4626535459</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>446</v>
+      </c>
       <c r="J232" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8364,7 +8304,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8399,13 +8339,11 @@
         <v>-103387.5382535459</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>451.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8440,13 +8378,11 @@
         <v>-103387.5382535459</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>451.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8485,7 +8421,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8520,13 +8456,11 @@
         <v>-103854.1469535459</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>447.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8565,7 +8499,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8604,7 +8538,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8643,7 +8577,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8678,13 +8612,11 @@
         <v>-98004.35795354591</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>451.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8723,7 +8655,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8762,7 +8694,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8801,7 +8733,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8840,7 +8772,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8879,7 +8811,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8918,7 +8850,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8957,7 +8889,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8996,7 +8928,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9035,7 +8967,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9074,7 +9006,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9113,7 +9045,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9152,7 +9084,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9191,7 +9123,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9230,7 +9162,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9269,7 +9201,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9308,7 +9240,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9347,7 +9279,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9386,7 +9318,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9425,7 +9357,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9464,7 +9396,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9503,7 +9435,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9542,7 +9474,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9581,7 +9513,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9620,7 +9552,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9659,7 +9591,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9698,7 +9630,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9737,7 +9669,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9772,19 +9704,19 @@
         <v>-91367.62125354591</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>443.1</v>
+        <v>445.9</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L269" t="n">
-        <v>1</v>
+        <v>1.034246467817896</v>
       </c>
       <c r="M269" t="inlineStr"/>
     </row>
@@ -9811,17 +9743,11 @@
         <v>-91367.62125354591</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9850,17 +9776,11 @@
         <v>-91277.8576535459</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9889,17 +9809,11 @@
         <v>-77169.60935354591</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9931,14 +9845,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9970,14 +9878,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10009,14 +9911,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10045,17 +9941,11 @@
         <v>-77175.28275354591</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10087,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10126,14 +10010,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10165,14 +10043,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10204,14 +10076,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10243,14 +10109,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10282,14 +10142,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10321,14 +10175,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10360,14 +10208,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10399,14 +10241,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10438,14 +10274,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10477,14 +10307,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10516,14 +10340,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10555,20 +10373,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>443.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
       <c r="M289" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest WTC.xlsx
+++ b/BackTest/2020-01-19 BackTest WTC.xlsx
@@ -1342,7 +1342,7 @@
         <v>-28608.85934301959</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-38296.78894301959</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-42081.56544301959</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-46115.47284301958</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-46132.57344301958</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-46024.55144301958</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-47524.21114301959</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-47524.21114301959</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-47594.86024301959</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-47606.86024301959</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-47829.46024301959</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-47829.46024301959</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-48252.06024301959</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-48930.32264301959</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-49221.27534301959</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-49221.27534301959</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-49672.77534301959</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-48714.1112535459</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-48714.1112535459</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-48716.5112535459</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-48699.8972535459</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-49840.48785354591</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-44099.00495354591</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-44106.20045354591</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-44006.20045354591</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-44005.10045354591</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-44700.70195354591</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-44595.95835354591</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-45773.55945354591</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-45773.55945354591</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-49225.19275354591</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -6853,14 +6853,10 @@
         <v>-109766.6042535459</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="J196" t="n">
-        <v>443.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
@@ -6890,17 +6886,15 @@
         <v>-109765.4042535459</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>444.4</v>
+      </c>
       <c r="J197" t="n">
-        <v>443.4</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>444.4</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6929,11 +6923,13 @@
         <v>-109766.6042535459</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>447</v>
+      </c>
       <c r="J198" t="n">
-        <v>443.4</v>
+        <v>444.4</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -6974,9 +6970,13 @@
         <v>444.5</v>
       </c>
       <c r="J199" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+        <v>444.4</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7013,11 +7013,7 @@
       <c r="J200" t="n">
         <v>444.5</v>
       </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7093,9 +7089,13 @@
         <v>445.9</v>
       </c>
       <c r="J202" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+        <v>444.5</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7130,13 +7130,9 @@
         <v>444.5</v>
       </c>
       <c r="J203" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>444.5</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7165,13 +7161,11 @@
         <v>-113295.0136535459</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>447</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7210,7 +7204,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7249,7 +7243,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7288,7 +7282,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7327,7 +7321,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7366,7 +7360,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7405,7 +7399,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7444,7 +7438,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7483,7 +7477,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7522,7 +7516,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7561,7 +7555,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7600,7 +7594,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7639,7 +7633,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7678,7 +7672,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7717,7 +7711,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7756,7 +7750,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7795,7 +7789,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7834,7 +7828,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7873,7 +7867,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7912,7 +7906,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7947,11 +7941,13 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>450</v>
+      </c>
       <c r="J224" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -7986,11 +7982,13 @@
         <v>-113053.5964535459</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>451.7</v>
+      </c>
       <c r="J225" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8025,11 +8023,13 @@
         <v>-113292.1964535459</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>451.7</v>
+      </c>
       <c r="J226" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8064,11 +8064,13 @@
         <v>-113962.1583535459</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>451</v>
+      </c>
       <c r="J227" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8103,11 +8105,13 @@
         <v>-114585.6953535459</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>450.9</v>
+      </c>
       <c r="J228" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8142,11 +8146,13 @@
         <v>-103676.6716535459</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>450.8</v>
+      </c>
       <c r="J229" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8185,7 +8191,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8224,7 +8230,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8265,7 +8271,7 @@
         <v>446</v>
       </c>
       <c r="J232" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8304,7 +8310,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8343,7 +8349,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8382,7 +8388,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8421,7 +8427,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8460,7 +8466,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8499,7 +8505,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8538,7 +8544,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8577,7 +8583,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8616,7 +8622,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8655,7 +8661,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8694,7 +8700,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8733,7 +8739,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8772,7 +8778,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8811,7 +8817,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8850,7 +8856,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8889,7 +8895,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8928,7 +8934,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8967,7 +8973,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9006,7 +9012,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9045,7 +9051,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9084,7 +9090,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9123,7 +9129,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9162,7 +9168,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9201,7 +9207,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9240,7 +9246,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9279,7 +9285,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9318,7 +9324,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9357,7 +9363,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9396,7 +9402,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9435,7 +9441,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9474,7 +9480,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9513,7 +9519,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9552,7 +9558,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9591,7 +9597,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9630,7 +9636,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9669,7 +9675,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9704,19 +9710,19 @@
         <v>-91367.62125354591</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>445.9</v>
+        <v>444.5</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L269" t="n">
-        <v>1.034246467817896</v>
+        <v>1</v>
       </c>
       <c r="M269" t="inlineStr"/>
     </row>
@@ -9743,11 +9749,17 @@
         <v>-91367.62125354591</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9776,11 +9788,17 @@
         <v>-91277.8576535459</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +9827,17 @@
         <v>-77169.60935354591</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9845,8 +9869,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9878,8 +9908,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9911,8 +9947,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9941,11 +9983,17 @@
         <v>-77175.28275354591</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9977,8 +10025,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10010,8 +10064,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10043,8 +10103,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10076,8 +10142,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10109,8 +10181,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10142,8 +10220,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10175,8 +10259,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10208,8 +10298,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10241,8 +10337,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10274,8 +10376,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10307,8 +10415,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10340,8 +10454,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10373,8 +10493,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>444.5</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-19 BackTest WTC.xlsx
+++ b/BackTest/2020-01-19 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M289"/>
+  <dimension ref="A1:L289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1539.637</v>
       </c>
       <c r="G2" t="n">
-        <v>-29323.52084301958</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>732.66</v>
       </c>
       <c r="G3" t="n">
-        <v>-28590.86084301958</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>-28589.76084301958</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2338</v>
       </c>
       <c r="G5" t="n">
-        <v>-26251.76084301958</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>58.1</v>
       </c>
       <c r="G6" t="n">
-        <v>-26193.66084301958</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>165.0889</v>
       </c>
       <c r="G7" t="n">
-        <v>-26193.66084301958</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>800</v>
       </c>
       <c r="G8" t="n">
-        <v>-25393.66084301958</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>703.11</v>
       </c>
       <c r="G9" t="n">
-        <v>-24690.55084301958</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>697.5321</v>
       </c>
       <c r="G10" t="n">
-        <v>-23993.01874301958</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>205.5444</v>
       </c>
       <c r="G11" t="n">
-        <v>-23787.47434301958</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>8291.815500000001</v>
       </c>
       <c r="G12" t="n">
-        <v>-32079.28984301959</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1500</v>
       </c>
       <c r="G13" t="n">
-        <v>-30579.28984301959</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1.055</v>
       </c>
       <c r="G14" t="n">
-        <v>-30580.34484301959</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>423.8982</v>
       </c>
       <c r="G15" t="n">
-        <v>-31004.24304301959</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>87.49169999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>-30916.75134301959</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>70</v>
       </c>
       <c r="G17" t="n">
-        <v>-30986.75134301959</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>107.236</v>
       </c>
       <c r="G18" t="n">
-        <v>-30879.51534301959</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>653.9722</v>
       </c>
       <c r="G19" t="n">
-        <v>-31533.48754301959</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>-31533.48694301959</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2.2012</v>
       </c>
       <c r="G21" t="n">
-        <v>-31535.68814301959</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2134.0693</v>
       </c>
       <c r="G22" t="n">
-        <v>-29401.61884301959</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>658.163</v>
       </c>
       <c r="G23" t="n">
-        <v>-28743.45584301959</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>135.4115</v>
       </c>
       <c r="G24" t="n">
-        <v>-28608.04434301959</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>176.1221</v>
       </c>
       <c r="G25" t="n">
-        <v>-28608.04434301959</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>173.0753</v>
       </c>
       <c r="G26" t="n">
-        <v>-28608.04434301959</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4.5295</v>
       </c>
       <c r="G27" t="n">
-        <v>-28608.04434301959</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1.09</v>
       </c>
       <c r="G28" t="n">
-        <v>-28606.95434301959</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1.905</v>
       </c>
       <c r="G29" t="n">
-        <v>-28608.85934301959</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>9687.929599999999</v>
       </c>
       <c r="G30" t="n">
-        <v>-38296.78894301959</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>3789.1229</v>
       </c>
       <c r="G31" t="n">
-        <v>-42085.91184301959</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>124.9494</v>
       </c>
       <c r="G32" t="n">
-        <v>-42085.91184301959</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>300</v>
       </c>
       <c r="G33" t="n">
-        <v>-42085.91184301959</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2134.0693</v>
       </c>
       <c r="G34" t="n">
-        <v>-42085.91184301959</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>4.3464</v>
       </c>
       <c r="G35" t="n">
-        <v>-42081.56544301959</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>4033.9074</v>
       </c>
       <c r="G36" t="n">
-        <v>-46115.47284301958</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>17.1006</v>
       </c>
       <c r="G37" t="n">
-        <v>-46132.57344301958</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>80.87479999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>-46132.57344301958</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>20.7273</v>
       </c>
       <c r="G39" t="n">
-        <v>-46153.30074301958</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>179</v>
       </c>
       <c r="G40" t="n">
-        <v>-46332.30074301958</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>59</v>
       </c>
       <c r="G41" t="n">
-        <v>-46391.30074301958</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>374.0627</v>
       </c>
       <c r="G42" t="n">
-        <v>-46017.23804301958</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1.398</v>
       </c>
       <c r="G43" t="n">
-        <v>-46018.63604301958</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>5.9154</v>
       </c>
       <c r="G44" t="n">
-        <v>-46024.55144301958</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>20.1407</v>
       </c>
       <c r="G45" t="n">
-        <v>-46044.69214301958</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>304.553</v>
       </c>
       <c r="G46" t="n">
-        <v>-46349.24514301958</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>533.122</v>
       </c>
       <c r="G47" t="n">
-        <v>-46882.36714301958</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>4.7199</v>
       </c>
       <c r="G48" t="n">
-        <v>-46882.36714301958</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>95.298</v>
       </c>
       <c r="G49" t="n">
-        <v>-46977.66514301959</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2441</v>
       </c>
       <c r="G50" t="n">
-        <v>-46977.66514301959</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>0.7187</v>
       </c>
       <c r="G51" t="n">
-        <v>-46977.66514301959</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>17144.9949</v>
       </c>
       <c r="G52" t="n">
-        <v>-64122.66004301958</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>2348.2766</v>
       </c>
       <c r="G53" t="n">
-        <v>-61774.38344301959</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1005.651</v>
       </c>
       <c r="G54" t="n">
-        <v>-60768.73244301959</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>578.8598</v>
       </c>
       <c r="G55" t="n">
-        <v>-60189.87264301959</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>1854.8373</v>
       </c>
       <c r="G56" t="n">
-        <v>-62044.70994301959</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1.2</v>
       </c>
       <c r="G57" t="n">
-        <v>-62045.90994301959</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>96.7773</v>
       </c>
       <c r="G58" t="n">
-        <v>-61949.13264301958</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1.2718</v>
       </c>
       <c r="G59" t="n">
-        <v>-61947.86084301958</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>792.173</v>
       </c>
       <c r="G60" t="n">
-        <v>-61155.68784301958</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>1000</v>
       </c>
       <c r="G61" t="n">
-        <v>-62155.68784301958</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>0.0005999999999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>-62155.68724301958</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>17.2573</v>
       </c>
       <c r="G63" t="n">
-        <v>-62138.42994301958</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>2019.7029</v>
       </c>
       <c r="G64" t="n">
-        <v>-62138.42994301958</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>22.3813</v>
       </c>
       <c r="G65" t="n">
-        <v>-62116.04864301958</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1133.8311</v>
       </c>
       <c r="G66" t="n">
-        <v>-60982.21754301958</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>896.0439</v>
       </c>
       <c r="G67" t="n">
-        <v>-60086.17364301958</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>22.422</v>
       </c>
       <c r="G68" t="n">
-        <v>-60108.59564301958</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10.6378</v>
       </c>
       <c r="G69" t="n">
-        <v>-60097.95784301958</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>21.7155</v>
       </c>
       <c r="G70" t="n">
-        <v>-60076.24234301958</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>142.5439</v>
       </c>
       <c r="G71" t="n">
-        <v>-60076.24234301958</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>535.4466</v>
       </c>
       <c r="G72" t="n">
-        <v>-59540.79574301958</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>3220.5666</v>
       </c>
       <c r="G73" t="n">
-        <v>-56320.22914301958</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>3254.1177</v>
       </c>
       <c r="G74" t="n">
-        <v>-59574.34684301959</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>5133.5001</v>
       </c>
       <c r="G75" t="n">
-        <v>-54440.84674301959</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>6916.6356</v>
       </c>
       <c r="G76" t="n">
-        <v>-47524.21114301959</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>371.0965</v>
       </c>
       <c r="G77" t="n">
-        <v>-47524.21114301959</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>70.6491</v>
       </c>
       <c r="G78" t="n">
-        <v>-47524.21114301959</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>70.6491</v>
       </c>
       <c r="G79" t="n">
-        <v>-47594.86024301959</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>140</v>
       </c>
       <c r="G80" t="n">
-        <v>-47454.86024301959</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>152</v>
       </c>
       <c r="G81" t="n">
-        <v>-47606.86024301959</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>222.6</v>
       </c>
       <c r="G82" t="n">
-        <v>-47829.46024301959</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>391.5599</v>
       </c>
       <c r="G83" t="n">
-        <v>-47829.46024301959</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>422.6</v>
       </c>
       <c r="G84" t="n">
-        <v>-48252.06024301959</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>678.2624</v>
       </c>
       <c r="G85" t="n">
-        <v>-48930.32264301959</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>290.9527</v>
       </c>
       <c r="G86" t="n">
-        <v>-49221.27534301959</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>149.0473</v>
       </c>
       <c r="G87" t="n">
-        <v>-49221.27534301959</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>270</v>
       </c>
       <c r="G88" t="n">
-        <v>-49491.27534301959</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1.2</v>
       </c>
       <c r="G89" t="n">
-        <v>-49490.07534301959</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>182.7</v>
       </c>
       <c r="G90" t="n">
-        <v>-49672.77534301959</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>958.6640894736842</v>
       </c>
       <c r="G91" t="n">
-        <v>-48714.1112535459</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>1.1</v>
       </c>
       <c r="G92" t="n">
-        <v>-48714.1112535459</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>2.4</v>
       </c>
       <c r="G93" t="n">
-        <v>-48716.5112535459</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>16.614</v>
       </c>
       <c r="G94" t="n">
-        <v>-48699.8972535459</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1140.5906</v>
       </c>
       <c r="G95" t="n">
-        <v>-49840.48785354591</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>34.7033</v>
       </c>
       <c r="G96" t="n">
-        <v>-49875.19115354591</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>5776.1862</v>
       </c>
       <c r="G97" t="n">
-        <v>-44099.00495354591</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>7.1955</v>
       </c>
       <c r="G98" t="n">
-        <v>-44106.20045354591</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>-44006.20045354591</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1.1</v>
       </c>
       <c r="G100" t="n">
-        <v>-44005.10045354591</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>182.1321</v>
       </c>
       <c r="G101" t="n">
-        <v>-44005.10045354591</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1289.0583</v>
       </c>
       <c r="G102" t="n">
-        <v>-44005.10045354591</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>695.6015</v>
       </c>
       <c r="G103" t="n">
-        <v>-44700.70195354591</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>104.7436</v>
       </c>
       <c r="G104" t="n">
-        <v>-44595.95835354591</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1177.6011</v>
       </c>
       <c r="G105" t="n">
-        <v>-45773.55945354591</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1367.4614</v>
       </c>
       <c r="G106" t="n">
-        <v>-45773.55945354591</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>3451.6333</v>
       </c>
       <c r="G107" t="n">
-        <v>-49225.19275354591</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>550</v>
       </c>
       <c r="G108" t="n">
-        <v>-48675.19275354591</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>119.9</v>
       </c>
       <c r="G109" t="n">
-        <v>-48555.29275354591</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1413.4225</v>
       </c>
       <c r="G110" t="n">
-        <v>-49968.71525354591</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>686.5775</v>
       </c>
       <c r="G111" t="n">
-        <v>-50655.29275354591</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1033.057</v>
       </c>
       <c r="G112" t="n">
-        <v>-49622.23575354591</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>118.7</v>
       </c>
       <c r="G113" t="n">
-        <v>-49503.53575354591</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>119.9</v>
       </c>
       <c r="G114" t="n">
-        <v>-49503.53575354591</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>2045.2157</v>
       </c>
       <c r="G115" t="n">
-        <v>-51548.75145354591</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>5323.2984</v>
       </c>
       <c r="G116" t="n">
-        <v>-56872.04985354591</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>1.125</v>
       </c>
       <c r="G117" t="n">
-        <v>-56870.92485354591</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>265.2223</v>
       </c>
       <c r="G118" t="n">
-        <v>-57136.14715354591</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>798.877</v>
       </c>
       <c r="G119" t="n">
-        <v>-57136.14715354591</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>798.877</v>
       </c>
       <c r="G120" t="n">
-        <v>-56337.27015354591</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1405.3734</v>
       </c>
       <c r="G121" t="n">
-        <v>-54931.89675354592</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>4389.2385</v>
       </c>
       <c r="G122" t="n">
-        <v>-59321.13525354592</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>1.2</v>
       </c>
       <c r="G123" t="n">
-        <v>-59319.93525354592</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>20.5155</v>
       </c>
       <c r="G124" t="n">
-        <v>-59340.45075354592</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>2962.475</v>
       </c>
       <c r="G125" t="n">
-        <v>-62302.92575354592</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>24.4472</v>
       </c>
       <c r="G126" t="n">
-        <v>-62278.47855354592</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>24.4472</v>
       </c>
       <c r="G127" t="n">
-        <v>-62278.47855354592</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>14.1297</v>
       </c>
       <c r="G128" t="n">
-        <v>-62264.34885354592</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>-62164.34885354592</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>206.2136</v>
       </c>
       <c r="G130" t="n">
-        <v>-61958.13525354592</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>70.0604</v>
       </c>
       <c r="G131" t="n">
-        <v>-62028.19565354592</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>1.1</v>
       </c>
       <c r="G132" t="n">
-        <v>-62027.09565354592</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>84</v>
       </c>
       <c r="G133" t="n">
-        <v>-62111.09565354592</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>1.2012</v>
       </c>
       <c r="G134" t="n">
-        <v>-62109.89445354592</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>500</v>
       </c>
       <c r="G135" t="n">
-        <v>-62609.89445354592</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>2302.3607</v>
       </c>
       <c r="G136" t="n">
-        <v>-64912.25515354591</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>165.1196</v>
       </c>
       <c r="G137" t="n">
-        <v>-65077.37475354591</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>3.24</v>
       </c>
       <c r="G138" t="n">
-        <v>-65074.13475354591</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>3000</v>
       </c>
       <c r="G139" t="n">
-        <v>-68074.13475354592</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>8994.105799999999</v>
       </c>
       <c r="G140" t="n">
-        <v>-68074.13475354592</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>9825.608</v>
       </c>
       <c r="G141" t="n">
-        <v>-68074.13475354592</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>2323.6968</v>
       </c>
       <c r="G142" t="n">
-        <v>-70397.83155354593</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>69.3219</v>
       </c>
       <c r="G143" t="n">
-        <v>-70467.15345354592</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>930.6781</v>
       </c>
       <c r="G144" t="n">
-        <v>-70467.15345354592</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>2.4</v>
       </c>
       <c r="G145" t="n">
-        <v>-70464.75345354593</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>9760.3128</v>
       </c>
       <c r="G146" t="n">
-        <v>-80225.06625354593</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>3.6</v>
       </c>
       <c r="G147" t="n">
-        <v>-80221.46625354592</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>31.4616</v>
       </c>
       <c r="G148" t="n">
-        <v>-80252.92785354592</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1.2</v>
       </c>
       <c r="G149" t="n">
-        <v>-80251.72785354592</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1382.5902</v>
       </c>
       <c r="G150" t="n">
-        <v>-80251.72785354592</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>200</v>
       </c>
       <c r="G151" t="n">
-        <v>-80451.72785354592</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>16.9736</v>
       </c>
       <c r="G152" t="n">
-        <v>-80468.70145354592</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>10346.0926</v>
       </c>
       <c r="G153" t="n">
-        <v>-90814.79405354592</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>9694.3907</v>
       </c>
       <c r="G154" t="n">
-        <v>-100509.1847535459</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>739.8611</v>
       </c>
       <c r="G155" t="n">
-        <v>-100509.1847535459</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>5.1072</v>
       </c>
       <c r="G156" t="n">
-        <v>-100504.0775535459</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>64.89279999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>-100504.0775535459</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>34.6872</v>
       </c>
       <c r="G158" t="n">
-        <v>-100538.7647535459</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>452.2744</v>
       </c>
       <c r="G159" t="n">
-        <v>-100086.4903535459</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>12712.2096</v>
       </c>
       <c r="G160" t="n">
-        <v>-100086.4903535459</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>163.2699</v>
       </c>
       <c r="G161" t="n">
-        <v>-100249.7602535459</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>2235.5605</v>
       </c>
       <c r="G162" t="n">
-        <v>-102485.3207535459</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>3831.6725</v>
       </c>
       <c r="G163" t="n">
-        <v>-98653.64825354594</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>523.5853</v>
       </c>
       <c r="G164" t="n">
-        <v>-99177.23355354594</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>731.8852000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>-99909.11875354595</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>6183.3353</v>
       </c>
       <c r="G166" t="n">
-        <v>-106092.454053546</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>402.9235</v>
       </c>
       <c r="G167" t="n">
-        <v>-106092.454053546</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>200</v>
       </c>
       <c r="G168" t="n">
-        <v>-106092.454053546</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>17914.4472</v>
       </c>
       <c r="G169" t="n">
-        <v>-106092.454053546</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>6201</v>
       </c>
       <c r="G170" t="n">
-        <v>-106092.454053546</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>3581.6595</v>
       </c>
       <c r="G171" t="n">
-        <v>-109674.1135535459</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>1300.8656</v>
       </c>
       <c r="G172" t="n">
-        <v>-109674.1135535459</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>34.5874</v>
       </c>
       <c r="G173" t="n">
-        <v>-109674.1135535459</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>3855.6197</v>
       </c>
       <c r="G174" t="n">
-        <v>-105818.493853546</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>13.9125</v>
       </c>
       <c r="G175" t="n">
-        <v>-105818.493853546</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>425.7158</v>
       </c>
       <c r="G176" t="n">
-        <v>-106244.209653546</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>9389.5771</v>
       </c>
       <c r="G177" t="n">
-        <v>-106244.209653546</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>203.2576</v>
       </c>
       <c r="G178" t="n">
-        <v>-106244.209653546</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>865.0619</v>
       </c>
       <c r="G179" t="n">
-        <v>-106244.209653546</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>1767.2898</v>
       </c>
       <c r="G180" t="n">
-        <v>-108011.499453546</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>3237.3421</v>
       </c>
       <c r="G181" t="n">
-        <v>-111248.8415535459</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>8.244400000000001</v>
       </c>
       <c r="G182" t="n">
-        <v>-111240.597153546</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>3237.3422</v>
       </c>
       <c r="G183" t="n">
-        <v>-114477.939353546</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>819.7386</v>
       </c>
       <c r="G184" t="n">
-        <v>-114477.939353546</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>121.4614</v>
       </c>
       <c r="G185" t="n">
-        <v>-114356.477953546</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>1672.7508</v>
       </c>
       <c r="G186" t="n">
-        <v>-116029.2287535459</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>45.2069</v>
       </c>
       <c r="G187" t="n">
-        <v>-116029.2287535459</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>164.5673</v>
       </c>
       <c r="G188" t="n">
-        <v>-116193.7960535459</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>2695.8615</v>
       </c>
       <c r="G189" t="n">
-        <v>-113497.9345535459</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>1.2</v>
       </c>
       <c r="G190" t="n">
-        <v>-113499.1345535459</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>1292.6814</v>
       </c>
       <c r="G191" t="n">
-        <v>-113499.1345535459</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>500</v>
       </c>
       <c r="G192" t="n">
-        <v>-113499.1345535459</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>2981.0852</v>
       </c>
       <c r="G193" t="n">
-        <v>-110518.0493535459</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>273.2157</v>
       </c>
       <c r="G194" t="n">
-        <v>-110244.8336535459</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>1.2</v>
       </c>
       <c r="G195" t="n">
-        <v>-110246.0336535459</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>479.4294</v>
       </c>
       <c r="G196" t="n">
-        <v>-109766.6042535459</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,22 +6293,19 @@
         <v>1.2</v>
       </c>
       <c r="G197" t="n">
-        <v>-109765.4042535459</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>444.4</v>
       </c>
       <c r="I197" t="n">
         <v>444.4</v>
       </c>
-      <c r="J197" t="n">
-        <v>444.4</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6920,26 +6327,23 @@
         <v>1.2</v>
       </c>
       <c r="G198" t="n">
-        <v>-109766.6042535459</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>447</v>
       </c>
       <c r="I198" t="n">
-        <v>447</v>
-      </c>
-      <c r="J198" t="n">
         <v>444.4</v>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="J198" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6961,26 +6365,23 @@
         <v>479.4294</v>
       </c>
       <c r="G199" t="n">
-        <v>-109766.6042535459</v>
+        <v>1</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>444.5</v>
       </c>
       <c r="I199" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="J199" t="n">
         <v>444.4</v>
       </c>
-      <c r="K199" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7002,22 +6403,19 @@
         <v>2013.9213</v>
       </c>
       <c r="G200" t="n">
-        <v>-107752.6829535459</v>
+        <v>1</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>444.5</v>
       </c>
       <c r="I200" t="n">
         <v>444.5</v>
       </c>
-      <c r="J200" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7039,26 +6437,23 @@
         <v>100</v>
       </c>
       <c r="G201" t="n">
-        <v>-107752.6829535459</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>445.9</v>
       </c>
       <c r="I201" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="J201" t="n">
         <v>444.5</v>
       </c>
-      <c r="K201" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7080,26 +6475,23 @@
         <v>780.3441</v>
       </c>
       <c r="G202" t="n">
-        <v>-108533.0270535459</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>445.9</v>
       </c>
       <c r="I202" t="n">
-        <v>445.9</v>
-      </c>
-      <c r="J202" t="n">
         <v>444.5</v>
       </c>
-      <c r="K202" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7121,22 +6513,19 @@
         <v>1880.5132</v>
       </c>
       <c r="G203" t="n">
-        <v>-106652.5138535459</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>444.5</v>
       </c>
       <c r="I203" t="n">
         <v>444.5</v>
       </c>
-      <c r="J203" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7158,24 +6547,21 @@
         <v>6642.4998</v>
       </c>
       <c r="G204" t="n">
-        <v>-113295.0136535459</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
         <v>444.5</v>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7197,24 +6583,21 @@
         <v>1.12</v>
       </c>
       <c r="G205" t="n">
-        <v>-113293.893653546</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
         <v>444.5</v>
       </c>
-      <c r="K205" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7236,24 +6619,21 @@
         <v>237.4</v>
       </c>
       <c r="G206" t="n">
-        <v>-113056.493653546</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
         <v>444.5</v>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7275,24 +6655,21 @@
         <v>2115.729</v>
       </c>
       <c r="G207" t="n">
-        <v>-113056.493653546</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
         <v>444.5</v>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="J207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7314,24 +6691,21 @@
         <v>1748.6272</v>
       </c>
       <c r="G208" t="n">
-        <v>-111307.866453546</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
         <v>444.5</v>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="J208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7353,24 +6727,21 @@
         <v>1316.8106</v>
       </c>
       <c r="G209" t="n">
-        <v>-111307.866453546</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
         <v>444.5</v>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7392,24 +6763,21 @@
         <v>1976.2857</v>
       </c>
       <c r="G210" t="n">
-        <v>-111307.866453546</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
         <v>444.5</v>
       </c>
-      <c r="K210" t="inlineStr">
+      <c r="J210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7431,24 +6799,21 @@
         <v>1079.0307</v>
       </c>
       <c r="G211" t="n">
-        <v>-111307.866453546</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
         <v>444.5</v>
       </c>
-      <c r="K211" t="inlineStr">
+      <c r="J211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7470,24 +6835,21 @@
         <v>2.6711</v>
       </c>
       <c r="G212" t="n">
-        <v>-111305.1953535459</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
         <v>444.5</v>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7509,24 +6871,21 @@
         <v>19.7102</v>
       </c>
       <c r="G213" t="n">
-        <v>-111324.9055535459</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
         <v>444.5</v>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7548,24 +6907,21 @@
         <v>3213.6047</v>
       </c>
       <c r="G214" t="n">
-        <v>-114538.5102535459</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
         <v>444.5</v>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7587,24 +6943,21 @@
         <v>1.2</v>
       </c>
       <c r="G215" t="n">
-        <v>-114539.7102535459</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
         <v>444.5</v>
       </c>
-      <c r="K215" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7626,24 +6979,21 @@
         <v>246.282</v>
       </c>
       <c r="G216" t="n">
-        <v>-114539.7102535459</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
         <v>444.5</v>
       </c>
-      <c r="K216" t="inlineStr">
+      <c r="J216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7665,24 +7015,21 @@
         <v>1.2</v>
       </c>
       <c r="G217" t="n">
-        <v>-114540.9102535459</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
         <v>444.5</v>
       </c>
-      <c r="K217" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7704,24 +7051,21 @@
         <v>1284.326</v>
       </c>
       <c r="G218" t="n">
-        <v>-113256.5842535459</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
         <v>444.5</v>
       </c>
-      <c r="K218" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7743,24 +7087,21 @@
         <v>215.674</v>
       </c>
       <c r="G219" t="n">
-        <v>-113256.5842535459</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
         <v>444.5</v>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7782,24 +7123,21 @@
         <v>1.2</v>
       </c>
       <c r="G220" t="n">
-        <v>-113255.3842535459</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
         <v>444.5</v>
       </c>
-      <c r="K220" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7821,24 +7159,21 @@
         <v>271.0618</v>
       </c>
       <c r="G221" t="n">
-        <v>-113526.4460535459</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
         <v>444.5</v>
       </c>
-      <c r="K221" t="inlineStr">
+      <c r="J221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7860,24 +7195,21 @@
         <v>229</v>
       </c>
       <c r="G222" t="n">
-        <v>-113297.4460535459</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
         <v>444.5</v>
       </c>
-      <c r="K222" t="inlineStr">
+      <c r="J222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7899,24 +7231,21 @@
         <v>1387.2836</v>
       </c>
       <c r="G223" t="n">
-        <v>-113297.4460535459</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
         <v>444.5</v>
       </c>
-      <c r="K223" t="inlineStr">
+      <c r="J223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7938,26 +7267,21 @@
         <v>243.8496</v>
       </c>
       <c r="G224" t="n">
-        <v>-113053.5964535459</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="n">
-        <v>450</v>
-      </c>
-      <c r="J224" t="n">
         <v>444.5</v>
       </c>
-      <c r="K224" t="inlineStr">
+      <c r="J224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7979,26 +7303,21 @@
         <v>243.8518</v>
       </c>
       <c r="G225" t="n">
-        <v>-113053.5964535459</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="n">
-        <v>451.7</v>
-      </c>
-      <c r="J225" t="n">
         <v>444.5</v>
       </c>
-      <c r="K225" t="inlineStr">
+      <c r="J225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8020,26 +7339,21 @@
         <v>238.6</v>
       </c>
       <c r="G226" t="n">
-        <v>-113292.1964535459</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="n">
-        <v>451.7</v>
-      </c>
-      <c r="J226" t="n">
         <v>444.5</v>
       </c>
-      <c r="K226" t="inlineStr">
+      <c r="J226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8061,26 +7375,21 @@
         <v>669.9619</v>
       </c>
       <c r="G227" t="n">
-        <v>-113962.1583535459</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="n">
-        <v>451</v>
-      </c>
-      <c r="J227" t="n">
         <v>444.5</v>
       </c>
-      <c r="K227" t="inlineStr">
+      <c r="J227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8102,26 +7411,21 @@
         <v>623.537</v>
       </c>
       <c r="G228" t="n">
-        <v>-114585.6953535459</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="n">
-        <v>450.9</v>
-      </c>
-      <c r="J228" t="n">
         <v>444.5</v>
       </c>
-      <c r="K228" t="inlineStr">
+      <c r="J228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8143,26 +7447,21 @@
         <v>10909.0237</v>
       </c>
       <c r="G229" t="n">
-        <v>-103676.6716535459</v>
-      </c>
-      <c r="H229" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="n">
-        <v>450.8</v>
-      </c>
-      <c r="J229" t="n">
         <v>444.5</v>
       </c>
-      <c r="K229" t="inlineStr">
+      <c r="J229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8184,24 +7483,21 @@
         <v>10897.653</v>
       </c>
       <c r="G230" t="n">
-        <v>-103676.6716535459</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
         <v>444.5</v>
       </c>
-      <c r="K230" t="inlineStr">
+      <c r="J230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8223,24 +7519,21 @@
         <v>1000</v>
       </c>
       <c r="G231" t="n">
-        <v>-104676.6716535459</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
         <v>444.5</v>
       </c>
-      <c r="K231" t="inlineStr">
+      <c r="J231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8262,26 +7555,21 @@
         <v>458.209</v>
       </c>
       <c r="G232" t="n">
-        <v>-104218.4626535459</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="n">
-        <v>446</v>
-      </c>
-      <c r="J232" t="n">
         <v>444.5</v>
       </c>
-      <c r="K232" t="inlineStr">
+      <c r="J232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8303,24 +7591,21 @@
         <v>830.9244</v>
       </c>
       <c r="G233" t="n">
-        <v>-103387.5382535459</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
         <v>444.5</v>
       </c>
-      <c r="K233" t="inlineStr">
+      <c r="J233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8342,24 +7627,21 @@
         <v>169.0756</v>
       </c>
       <c r="G234" t="n">
-        <v>-103387.5382535459</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
         <v>444.5</v>
       </c>
-      <c r="K234" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8381,24 +7663,21 @@
         <v>6653.3257</v>
       </c>
       <c r="G235" t="n">
-        <v>-103387.5382535459</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
         <v>444.5</v>
       </c>
-      <c r="K235" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8420,24 +7699,21 @@
         <v>467.7087</v>
       </c>
       <c r="G236" t="n">
-        <v>-103855.2469535459</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
         <v>444.5</v>
       </c>
-      <c r="K236" t="inlineStr">
+      <c r="J236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8459,24 +7735,21 @@
         <v>1.1</v>
       </c>
       <c r="G237" t="n">
-        <v>-103854.1469535459</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
         <v>444.5</v>
       </c>
-      <c r="K237" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8498,24 +7771,21 @@
         <v>500</v>
       </c>
       <c r="G238" t="n">
-        <v>-103854.1469535459</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
         <v>444.5</v>
       </c>
-      <c r="K238" t="inlineStr">
+      <c r="J238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8537,24 +7807,21 @@
         <v>500</v>
       </c>
       <c r="G239" t="n">
-        <v>-103854.1469535459</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
         <v>444.5</v>
       </c>
-      <c r="K239" t="inlineStr">
+      <c r="J239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8576,24 +7843,21 @@
         <v>1160.2576</v>
       </c>
       <c r="G240" t="n">
-        <v>-105014.4045535459</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
         <v>444.5</v>
       </c>
-      <c r="K240" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8615,24 +7879,21 @@
         <v>7010.0466</v>
       </c>
       <c r="G241" t="n">
-        <v>-98004.35795354591</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
         <v>444.5</v>
       </c>
-      <c r="K241" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8654,24 +7915,21 @@
         <v>22.5001</v>
       </c>
       <c r="G242" t="n">
-        <v>-97981.85785354591</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
         <v>444.5</v>
       </c>
-      <c r="K242" t="inlineStr">
+      <c r="J242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8693,24 +7951,21 @@
         <v>6716.1963</v>
       </c>
       <c r="G243" t="n">
-        <v>-91265.66155354591</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
         <v>444.5</v>
       </c>
-      <c r="K243" t="inlineStr">
+      <c r="J243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8732,24 +7987,21 @@
         <v>1739.0994</v>
       </c>
       <c r="G244" t="n">
-        <v>-89526.56215354591</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
         <v>444.5</v>
       </c>
-      <c r="K244" t="inlineStr">
+      <c r="J244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8771,24 +8023,21 @@
         <v>4862.0949</v>
       </c>
       <c r="G245" t="n">
-        <v>-84664.46725354591</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
         <v>444.5</v>
       </c>
-      <c r="K245" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8810,24 +8059,21 @@
         <v>6345.0438</v>
       </c>
       <c r="G246" t="n">
-        <v>-78319.42345354591</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
         <v>444.5</v>
       </c>
-      <c r="K246" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8849,24 +8095,21 @@
         <v>2.7422</v>
       </c>
       <c r="G247" t="n">
-        <v>-78322.1656535459</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
         <v>444.5</v>
       </c>
-      <c r="K247" t="inlineStr">
+      <c r="J247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8888,24 +8131,21 @@
         <v>5</v>
       </c>
       <c r="G248" t="n">
-        <v>-78327.1656535459</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
         <v>444.5</v>
       </c>
-      <c r="K248" t="inlineStr">
+      <c r="J248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8927,24 +8167,21 @@
         <v>7745.0476</v>
       </c>
       <c r="G249" t="n">
-        <v>-86072.21325354591</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
+        <v>2</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
         <v>444.5</v>
       </c>
-      <c r="K249" t="inlineStr">
+      <c r="J249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1.024471316085489</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8966,24 +8203,15 @@
         <v>619.1224999999999</v>
       </c>
       <c r="G250" t="n">
-        <v>-86072.21325354591</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9005,24 +8233,15 @@
         <v>200</v>
       </c>
       <c r="G251" t="n">
-        <v>-85872.21325354591</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9044,24 +8263,15 @@
         <v>1000</v>
       </c>
       <c r="G252" t="n">
-        <v>-86872.21325354591</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9083,24 +8293,15 @@
         <v>105.2</v>
       </c>
       <c r="G253" t="n">
-        <v>-86767.01325354591</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9122,24 +8323,15 @@
         <v>1129.8252</v>
       </c>
       <c r="G254" t="n">
-        <v>-86767.01325354591</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9161,24 +8353,15 @@
         <v>3505.0233</v>
       </c>
       <c r="G255" t="n">
-        <v>-90272.03655354591</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9200,24 +8383,15 @@
         <v>1.5</v>
       </c>
       <c r="G256" t="n">
-        <v>-90270.53655354591</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9239,24 +8413,15 @@
         <v>107.6047</v>
       </c>
       <c r="G257" t="n">
-        <v>-90378.14125354591</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9278,24 +8443,15 @@
         <v>1.5</v>
       </c>
       <c r="G258" t="n">
-        <v>-90376.64125354591</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9317,24 +8473,15 @@
         <v>3.1</v>
       </c>
       <c r="G259" t="n">
-        <v>-90373.5412535459</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9356,24 +8503,15 @@
         <v>2</v>
       </c>
       <c r="G260" t="n">
-        <v>-90375.5412535459</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9395,24 +8533,15 @@
         <v>7.74</v>
       </c>
       <c r="G261" t="n">
-        <v>-90367.8012535459</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9434,24 +8563,15 @@
         <v>1240.8129</v>
       </c>
       <c r="G262" t="n">
-        <v>-91608.6141535459</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9473,24 +8593,15 @@
         <v>500</v>
       </c>
       <c r="G263" t="n">
-        <v>-91108.6141535459</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9512,24 +8623,15 @@
         <v>1.1</v>
       </c>
       <c r="G264" t="n">
-        <v>-91107.5141535459</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9551,24 +8653,15 @@
         <v>538</v>
       </c>
       <c r="G265" t="n">
-        <v>-91645.5141535459</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9590,24 +8683,15 @@
         <v>1.2</v>
       </c>
       <c r="G266" t="n">
-        <v>-91644.3141535459</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9629,24 +8713,15 @@
         <v>276.7447</v>
       </c>
       <c r="G267" t="n">
-        <v>-91367.5694535459</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9668,24 +8743,15 @@
         <v>8.2553</v>
       </c>
       <c r="G268" t="n">
-        <v>-91375.82475354591</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9707,24 +8773,15 @@
         <v>8.2035</v>
       </c>
       <c r="G269" t="n">
-        <v>-91367.62125354591</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9746,24 +8803,15 @@
         <v>344.2457</v>
       </c>
       <c r="G270" t="n">
-        <v>-91367.62125354591</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9785,24 +8833,15 @@
         <v>89.7636</v>
       </c>
       <c r="G271" t="n">
-        <v>-91277.8576535459</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9824,24 +8863,15 @@
         <v>14108.2483</v>
       </c>
       <c r="G272" t="n">
-        <v>-77169.60935354591</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9863,24 +8893,15 @@
         <v>7.6734</v>
       </c>
       <c r="G273" t="n">
-        <v>-77177.28275354591</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9902,24 +8923,15 @@
         <v>333.9991</v>
       </c>
       <c r="G274" t="n">
-        <v>-77177.28275354591</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9941,24 +8953,15 @@
         <v>24.249</v>
       </c>
       <c r="G275" t="n">
-        <v>-77177.28275354591</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9980,24 +8983,15 @@
         <v>2</v>
       </c>
       <c r="G276" t="n">
-        <v>-77175.28275354591</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10019,24 +9013,15 @@
         <v>130.4511438956596</v>
       </c>
       <c r="G277" t="n">
-        <v>-77044.83160965025</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10058,24 +9043,15 @@
         <v>484.2252</v>
       </c>
       <c r="G278" t="n">
-        <v>-77529.05680965025</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10097,24 +9073,15 @@
         <v>1053</v>
       </c>
       <c r="G279" t="n">
-        <v>-78582.05680965025</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10136,24 +9103,15 @@
         <v>131.5856</v>
       </c>
       <c r="G280" t="n">
-        <v>-78713.64240965026</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10175,24 +9133,15 @@
         <v>870.037</v>
       </c>
       <c r="G281" t="n">
-        <v>-79583.67940965026</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10214,24 +9163,15 @@
         <v>16.331</v>
       </c>
       <c r="G282" t="n">
-        <v>-79567.34840965025</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10253,24 +9193,15 @@
         <v>1796.5556</v>
       </c>
       <c r="G283" t="n">
-        <v>-81363.90400965026</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10292,24 +9223,15 @@
         <v>193.4453</v>
       </c>
       <c r="G284" t="n">
-        <v>-81170.45870965025</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10331,24 +9253,15 @@
         <v>280.4069</v>
       </c>
       <c r="G285" t="n">
-        <v>-80890.05180965025</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10370,24 +9283,15 @@
         <v>53.99647688984881</v>
       </c>
       <c r="G286" t="n">
-        <v>-80836.0553327604</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10409,24 +9313,15 @@
         <v>32.75672311015119</v>
       </c>
       <c r="G287" t="n">
-        <v>-80836.0553327604</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10448,24 +9343,15 @@
         <v>47.096</v>
       </c>
       <c r="G288" t="n">
-        <v>-80836.0553327604</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10487,24 +9373,15 @@
         <v>27.64417688984881</v>
       </c>
       <c r="G289" t="n">
-        <v>-80836.0553327604</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>444.5</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
